--- a/J_J/019-24A-Tscan_0_2mean-b_MR_b.xlsx
+++ b/J_J/019-24A-Tscan_0_2mean-b_MR_b.xlsx
@@ -1,27 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sdh\dws\J_J\mra\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sdh\dws\J_J\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{89FC73D0-B74F-4648-B8A0-8FF2F7C5B274}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{7FBB9EF0-13C7-49E0-AC5D-A5EDC5002E29}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="930" yWindow="0" windowWidth="13815" windowHeight="10800" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="1860" yWindow="0" windowWidth="13815" windowHeight="10800" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="019-24A-Tscan_0_2mean-b_MR" sheetId="1" r:id="rId1"/>
     <sheet name="019-24A-Tscan_0_2mean-b_MR (2)" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="179017"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="45">
   <si>
     <t>MicroRheology Analysis v9.2.8</t>
   </si>
@@ -121,11 +121,47 @@
   <si>
     <t>G*</t>
   </si>
+  <si>
+    <t>ITERATION:</t>
+  </si>
+  <si>
+    <t>PARAMETERS_PART</t>
+  </si>
+  <si>
+    <t>RATIO</t>
+  </si>
+  <si>
+    <t>TIME_INTERVAL</t>
+  </si>
+  <si>
+    <t>REPTATION_TIME</t>
+  </si>
+  <si>
+    <t>BREAKAGE_TIME</t>
+  </si>
+  <si>
+    <t>MICELLE_LENGTH</t>
+  </si>
+  <si>
+    <t>PLATAEU</t>
+  </si>
+  <si>
+    <t>Le</t>
+  </si>
+  <si>
+    <t>Lp</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>simulation version 1</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -3646,6 +3682,5233 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>24A</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>simG'</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'019-24A-Tscan_0_2mean-b_MR (2)'!$P$22:$P$221</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="200"/>
+                <c:pt idx="0">
+                  <c:v>1.08392686E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1748977000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.2735031500000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.38038425E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.49623547E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.62181016E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.7579237000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.9054606599999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.0653804800000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.2387212100000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.42660996E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.6302676600000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.8510185E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.0902955700000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.34965438E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.6307800600000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.93550098E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.2657952800000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.6238098300000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.01187295E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5.4325036700000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5.8884363600000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>6.3826337499999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>6.9183103699999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>7.4989423200000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>8.1283047799999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>8.8104896200000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>9.5499262200000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="28" formatCode="General">
+                  <c:v>0.10351421700000001</c:v>
+                </c:pt>
+                <c:pt idx="29" formatCode="General">
+                  <c:v>0.11220184699999999</c:v>
+                </c:pt>
+                <c:pt idx="30" formatCode="General">
+                  <c:v>0.121618591</c:v>
+                </c:pt>
+                <c:pt idx="31" formatCode="General">
+                  <c:v>0.13182567100000001</c:v>
+                </c:pt>
+                <c:pt idx="32" formatCode="General">
+                  <c:v>0.14288940999999999</c:v>
+                </c:pt>
+                <c:pt idx="33" formatCode="General">
+                  <c:v>0.15488165600000001</c:v>
+                </c:pt>
+                <c:pt idx="34" formatCode="General">
+                  <c:v>0.167880416</c:v>
+                </c:pt>
+                <c:pt idx="35" formatCode="General">
+                  <c:v>0.18197007500000001</c:v>
+                </c:pt>
+                <c:pt idx="36" formatCode="General">
+                  <c:v>0.19724227499999999</c:v>
+                </c:pt>
+                <c:pt idx="37" formatCode="General">
+                  <c:v>0.21379619799999999</c:v>
+                </c:pt>
+                <c:pt idx="38" formatCode="General">
+                  <c:v>0.231739476</c:v>
+                </c:pt>
+                <c:pt idx="39" formatCode="General">
+                  <c:v>0.25118863600000002</c:v>
+                </c:pt>
+                <c:pt idx="40" formatCode="General">
+                  <c:v>0.27227014300000002</c:v>
+                </c:pt>
+                <c:pt idx="41" formatCode="General">
+                  <c:v>0.29512095500000002</c:v>
+                </c:pt>
+                <c:pt idx="42" formatCode="General">
+                  <c:v>0.31988951599999998</c:v>
+                </c:pt>
+                <c:pt idx="43" formatCode="General">
+                  <c:v>0.34673687800000003</c:v>
+                </c:pt>
+                <c:pt idx="44" formatCode="General">
+                  <c:v>0.37583741500000001</c:v>
+                </c:pt>
+                <c:pt idx="45" formatCode="General">
+                  <c:v>0.40738028300000001</c:v>
+                </c:pt>
+                <c:pt idx="46" formatCode="General">
+                  <c:v>0.44157046100000003</c:v>
+                </c:pt>
+                <c:pt idx="47" formatCode="General">
+                  <c:v>0.478630096</c:v>
+                </c:pt>
+                <c:pt idx="48" formatCode="General">
+                  <c:v>0.51880002000000003</c:v>
+                </c:pt>
+                <c:pt idx="49" formatCode="General">
+                  <c:v>0.56234133200000003</c:v>
+                </c:pt>
+                <c:pt idx="50" formatCode="General">
+                  <c:v>0.609536886</c:v>
+                </c:pt>
+                <c:pt idx="51" formatCode="General">
+                  <c:v>0.66069346699999998</c:v>
+                </c:pt>
+                <c:pt idx="52" formatCode="General">
+                  <c:v>0.71614342900000005</c:v>
+                </c:pt>
+                <c:pt idx="53" formatCode="General">
+                  <c:v>0.77624714399999994</c:v>
+                </c:pt>
+                <c:pt idx="54" formatCode="General">
+                  <c:v>0.84139514000000004</c:v>
+                </c:pt>
+                <c:pt idx="55" formatCode="General">
+                  <c:v>0.91201084899999996</c:v>
+                </c:pt>
+                <c:pt idx="56" formatCode="General">
+                  <c:v>0.98855310699999999</c:v>
+                </c:pt>
+                <c:pt idx="57" formatCode="General">
+                  <c:v>1.0715193700000001</c:v>
+                </c:pt>
+                <c:pt idx="58" formatCode="General">
+                  <c:v>1.1614485999999999</c:v>
+                </c:pt>
+                <c:pt idx="59" formatCode="General">
+                  <c:v>1.2589254400000001</c:v>
+                </c:pt>
+                <c:pt idx="60" formatCode="General">
+                  <c:v>1.36458313</c:v>
+                </c:pt>
+                <c:pt idx="61" formatCode="General">
+                  <c:v>1.47910845</c:v>
+                </c:pt>
+                <c:pt idx="62" formatCode="General">
+                  <c:v>1.6032455000000001</c:v>
+                </c:pt>
+                <c:pt idx="63" formatCode="General">
+                  <c:v>1.73780084</c:v>
+                </c:pt>
+                <c:pt idx="64" formatCode="General">
+                  <c:v>1.8836491099999999</c:v>
+                </c:pt>
+                <c:pt idx="65" formatCode="General">
+                  <c:v>2.0417380299999999</c:v>
+                </c:pt>
+                <c:pt idx="66" formatCode="General">
+                  <c:v>2.21309471</c:v>
+                </c:pt>
+                <c:pt idx="67" formatCode="General">
+                  <c:v>2.3988328000000001</c:v>
+                </c:pt>
+                <c:pt idx="68" formatCode="General">
+                  <c:v>2.6001596500000002</c:v>
+                </c:pt>
+                <c:pt idx="69" formatCode="General">
+                  <c:v>2.81838298</c:v>
+                </c:pt>
+                <c:pt idx="70" formatCode="General">
+                  <c:v>3.0549211500000002</c:v>
+                </c:pt>
+                <c:pt idx="71" formatCode="General">
+                  <c:v>3.3113110099999998</c:v>
+                </c:pt>
+                <c:pt idx="72" formatCode="General">
+                  <c:v>3.5892193300000002</c:v>
+                </c:pt>
+                <c:pt idx="73" formatCode="General">
+                  <c:v>3.89045167</c:v>
+                </c:pt>
+                <c:pt idx="74" formatCode="General">
+                  <c:v>4.2169651999999997</c:v>
+                </c:pt>
+                <c:pt idx="75" formatCode="General">
+                  <c:v>4.5708823199999999</c:v>
+                </c:pt>
+                <c:pt idx="76" formatCode="General">
+                  <c:v>4.9545016300000002</c:v>
+                </c:pt>
+                <c:pt idx="77" formatCode="General">
+                  <c:v>5.3703184100000003</c:v>
+                </c:pt>
+                <c:pt idx="78" formatCode="General">
+                  <c:v>5.8210320500000003</c:v>
+                </c:pt>
+                <c:pt idx="79" formatCode="General">
+                  <c:v>6.3095736499999999</c:v>
+                </c:pt>
+                <c:pt idx="80" formatCode="General">
+                  <c:v>6.8391170499999996</c:v>
+                </c:pt>
+                <c:pt idx="81" formatCode="General">
+                  <c:v>7.41310263</c:v>
+                </c:pt>
+                <c:pt idx="82" formatCode="General">
+                  <c:v>8.0352621099999997</c:v>
+                </c:pt>
+                <c:pt idx="83" formatCode="General">
+                  <c:v>8.7096357300000005</c:v>
+                </c:pt>
+                <c:pt idx="84" formatCode="General">
+                  <c:v>9.4406089800000004</c:v>
+                </c:pt>
+                <c:pt idx="85" formatCode="General">
+                  <c:v>10.232929199999999</c:v>
+                </c:pt>
+                <c:pt idx="86" formatCode="General">
+                  <c:v>11.0917473</c:v>
+                </c:pt>
+                <c:pt idx="87" formatCode="General">
+                  <c:v>12.022646</c:v>
+                </c:pt>
+                <c:pt idx="88" formatCode="General">
+                  <c:v>13.0316677</c:v>
+                </c:pt>
+                <c:pt idx="89" formatCode="General">
+                  <c:v>14.125374799999999</c:v>
+                </c:pt>
+                <c:pt idx="90" formatCode="General">
+                  <c:v>15.310876800000001</c:v>
+                </c:pt>
+                <c:pt idx="91" formatCode="General">
+                  <c:v>16.595870999999999</c:v>
+                </c:pt>
+                <c:pt idx="92" formatCode="General">
+                  <c:v>17.988708500000001</c:v>
+                </c:pt>
+                <c:pt idx="93" formatCode="General">
+                  <c:v>19.498443600000002</c:v>
+                </c:pt>
+                <c:pt idx="94" formatCode="General">
+                  <c:v>21.134893399999999</c:v>
+                </c:pt>
+                <c:pt idx="95" formatCode="General">
+                  <c:v>22.908678099999999</c:v>
+                </c:pt>
+                <c:pt idx="96" formatCode="General">
+                  <c:v>24.8313293</c:v>
+                </c:pt>
+                <c:pt idx="97" formatCode="General">
+                  <c:v>26.915351900000001</c:v>
+                </c:pt>
+                <c:pt idx="98" formatCode="General">
+                  <c:v>29.174272500000001</c:v>
+                </c:pt>
+                <c:pt idx="99" formatCode="General">
+                  <c:v>31.622776000000002</c:v>
+                </c:pt>
+                <c:pt idx="100" formatCode="General">
+                  <c:v>34.276775399999998</c:v>
+                </c:pt>
+                <c:pt idx="101" formatCode="General">
+                  <c:v>37.153526300000003</c:v>
+                </c:pt>
+                <c:pt idx="102" formatCode="General">
+                  <c:v>40.271705599999997</c:v>
+                </c:pt>
+                <c:pt idx="103" formatCode="General">
+                  <c:v>43.651580799999998</c:v>
+                </c:pt>
+                <c:pt idx="104" formatCode="General">
+                  <c:v>47.3151321</c:v>
+                </c:pt>
+                <c:pt idx="105" formatCode="General">
+                  <c:v>51.286144299999997</c:v>
+                </c:pt>
+                <c:pt idx="106" formatCode="General">
+                  <c:v>55.590427400000003</c:v>
+                </c:pt>
+                <c:pt idx="107" formatCode="General">
+                  <c:v>60.255954699999997</c:v>
+                </c:pt>
+                <c:pt idx="108" formatCode="General">
+                  <c:v>65.313064600000004</c:v>
+                </c:pt>
+                <c:pt idx="109" formatCode="General">
+                  <c:v>70.794578599999994</c:v>
+                </c:pt>
+                <c:pt idx="110" formatCode="General">
+                  <c:v>76.736144999999993</c:v>
+                </c:pt>
+                <c:pt idx="111" formatCode="General">
+                  <c:v>83.176391600000002</c:v>
+                </c:pt>
+                <c:pt idx="112" formatCode="General">
+                  <c:v>90.157119800000004</c:v>
+                </c:pt>
+                <c:pt idx="113" formatCode="General">
+                  <c:v>97.723724399999995</c:v>
+                </c:pt>
+                <c:pt idx="114" formatCode="General">
+                  <c:v>105.925392</c:v>
+                </c:pt>
+                <c:pt idx="115" formatCode="General">
+                  <c:v>114.81534600000001</c:v>
+                </c:pt>
+                <c:pt idx="116" formatCode="General">
+                  <c:v>124.451469</c:v>
+                </c:pt>
+                <c:pt idx="117" formatCode="General">
+                  <c:v>134.89631700000001</c:v>
+                </c:pt>
+                <c:pt idx="118" formatCode="General">
+                  <c:v>146.21769699999999</c:v>
+                </c:pt>
+                <c:pt idx="119" formatCode="General">
+                  <c:v>158.48933400000001</c:v>
+                </c:pt>
+                <c:pt idx="120" formatCode="General">
+                  <c:v>171.79089400000001</c:v>
+                </c:pt>
+                <c:pt idx="121" formatCode="General">
+                  <c:v>186.20871</c:v>
+                </c:pt>
+                <c:pt idx="122" formatCode="General">
+                  <c:v>201.83667</c:v>
+                </c:pt>
+                <c:pt idx="123" formatCode="General">
+                  <c:v>218.77612300000001</c:v>
+                </c:pt>
+                <c:pt idx="124" formatCode="General">
+                  <c:v>237.13737499999999</c:v>
+                </c:pt>
+                <c:pt idx="125" formatCode="General">
+                  <c:v>257.03964200000001</c:v>
+                </c:pt>
+                <c:pt idx="126" formatCode="General">
+                  <c:v>278.61206099999998</c:v>
+                </c:pt>
+                <c:pt idx="127" formatCode="General">
+                  <c:v>301.99517800000001</c:v>
+                </c:pt>
+                <c:pt idx="128" formatCode="General">
+                  <c:v>327.34075899999999</c:v>
+                </c:pt>
+                <c:pt idx="129" formatCode="General">
+                  <c:v>354.813354</c:v>
+                </c:pt>
+                <c:pt idx="130" formatCode="General">
+                  <c:v>384.59182700000002</c:v>
+                </c:pt>
+                <c:pt idx="131" formatCode="General">
+                  <c:v>416.869507</c:v>
+                </c:pt>
+                <c:pt idx="132" formatCode="General">
+                  <c:v>451.85592700000001</c:v>
+                </c:pt>
+                <c:pt idx="133" formatCode="General">
+                  <c:v>489.77886999999998</c:v>
+                </c:pt>
+                <c:pt idx="134" formatCode="General">
+                  <c:v>530.88433799999996</c:v>
+                </c:pt>
+                <c:pt idx="135" formatCode="General">
+                  <c:v>575.43994099999998</c:v>
+                </c:pt>
+                <c:pt idx="136" formatCode="General">
+                  <c:v>623.73492399999998</c:v>
+                </c:pt>
+                <c:pt idx="137" formatCode="General">
+                  <c:v>676.08288600000003</c:v>
+                </c:pt>
+                <c:pt idx="138" formatCode="General">
+                  <c:v>732.824524</c:v>
+                </c:pt>
+                <c:pt idx="139" formatCode="General">
+                  <c:v>794.32843000000003</c:v>
+                </c:pt>
+                <c:pt idx="140" formatCode="General">
+                  <c:v>860.993652</c:v>
+                </c:pt>
+                <c:pt idx="141" formatCode="General">
+                  <c:v>933.25433299999997</c:v>
+                </c:pt>
+                <c:pt idx="142" formatCode="General">
+                  <c:v>1011.57971</c:v>
+                </c:pt>
+                <c:pt idx="143" formatCode="General">
+                  <c:v>1096.4781499999999</c:v>
+                </c:pt>
+                <c:pt idx="144" formatCode="General">
+                  <c:v>1188.5023200000001</c:v>
+                </c:pt>
+                <c:pt idx="145" formatCode="General">
+                  <c:v>1288.25</c:v>
+                </c:pt>
+                <c:pt idx="146" formatCode="General">
+                  <c:v>1396.3682899999999</c:v>
+                </c:pt>
+                <c:pt idx="147" formatCode="General">
+                  <c:v>1513.56152</c:v>
+                </c:pt>
+                <c:pt idx="148" formatCode="General">
+                  <c:v>1640.5894800000001</c:v>
+                </c:pt>
+                <c:pt idx="149" formatCode="General">
+                  <c:v>1778.2794200000001</c:v>
+                </c:pt>
+                <c:pt idx="150" formatCode="General">
+                  <c:v>1927.5252700000001</c:v>
+                </c:pt>
+                <c:pt idx="151" formatCode="General">
+                  <c:v>2089.2959000000001</c:v>
+                </c:pt>
+                <c:pt idx="152" formatCode="General">
+                  <c:v>2264.6442900000002</c:v>
+                </c:pt>
+                <c:pt idx="153" formatCode="General">
+                  <c:v>2454.7094699999998</c:v>
+                </c:pt>
+                <c:pt idx="154" formatCode="General">
+                  <c:v>2660.7248500000001</c:v>
+                </c:pt>
+                <c:pt idx="155" formatCode="General">
+                  <c:v>2884.0317399999999</c:v>
+                </c:pt>
+                <c:pt idx="156" formatCode="General">
+                  <c:v>3126.08032</c:v>
+                </c:pt>
+                <c:pt idx="157" formatCode="General">
+                  <c:v>3388.4414099999999</c:v>
+                </c:pt>
+                <c:pt idx="158" formatCode="General">
+                  <c:v>3672.8234900000002</c:v>
+                </c:pt>
+                <c:pt idx="159" formatCode="General">
+                  <c:v>3981.0708</c:v>
+                </c:pt>
+                <c:pt idx="160" formatCode="General">
+                  <c:v>4315.1904299999997</c:v>
+                </c:pt>
+                <c:pt idx="161" formatCode="General">
+                  <c:v>4677.3520500000004</c:v>
+                </c:pt>
+                <c:pt idx="162" formatCode="General">
+                  <c:v>5069.90625</c:v>
+                </c:pt>
+                <c:pt idx="163" formatCode="General">
+                  <c:v>5495.4086900000002</c:v>
+                </c:pt>
+                <c:pt idx="164" formatCode="General">
+                  <c:v>5956.6225599999998</c:v>
+                </c:pt>
+                <c:pt idx="165" formatCode="General">
+                  <c:v>6456.5415000000003</c:v>
+                </c:pt>
+                <c:pt idx="166" formatCode="General">
+                  <c:v>6998.4204099999997</c:v>
+                </c:pt>
+                <c:pt idx="167" formatCode="General">
+                  <c:v>7585.77783</c:v>
+                </c:pt>
+                <c:pt idx="168" formatCode="General">
+                  <c:v>8222.4257799999996</c:v>
+                </c:pt>
+                <c:pt idx="169" formatCode="General">
+                  <c:v>8912.5107399999997</c:v>
+                </c:pt>
+                <c:pt idx="170" formatCode="General">
+                  <c:v>9660.5117200000004</c:v>
+                </c:pt>
+                <c:pt idx="171" formatCode="General">
+                  <c:v>10471.2852</c:v>
+                </c:pt>
+                <c:pt idx="172" formatCode="General">
+                  <c:v>11350.103499999999</c:v>
+                </c:pt>
+                <c:pt idx="173" formatCode="General">
+                  <c:v>12302.6924</c:v>
+                </c:pt>
+                <c:pt idx="174" formatCode="General">
+                  <c:v>13335.213900000001</c:v>
+                </c:pt>
+                <c:pt idx="175" formatCode="General">
+                  <c:v>14454.392599999999</c:v>
+                </c:pt>
+                <c:pt idx="176" formatCode="General">
+                  <c:v>15667.516600000001</c:v>
+                </c:pt>
+                <c:pt idx="177" formatCode="General">
+                  <c:v>16982.4375</c:v>
+                </c:pt>
+                <c:pt idx="178" formatCode="General">
+                  <c:v>18407.714800000002</c:v>
+                </c:pt>
+                <c:pt idx="179" formatCode="General">
+                  <c:v>19952.632799999999</c:v>
+                </c:pt>
+                <c:pt idx="180" formatCode="General">
+                  <c:v>21627.1875</c:v>
+                </c:pt>
+                <c:pt idx="181" formatCode="General">
+                  <c:v>23442.281200000001</c:v>
+                </c:pt>
+                <c:pt idx="182" formatCode="General">
+                  <c:v>25409.7402</c:v>
+                </c:pt>
+                <c:pt idx="183" formatCode="General">
+                  <c:v>27542.291000000001</c:v>
+                </c:pt>
+                <c:pt idx="184" formatCode="General">
+                  <c:v>29853.820299999999</c:v>
+                </c:pt>
+                <c:pt idx="185" formatCode="General">
+                  <c:v>32359.382799999999</c:v>
+                </c:pt>
+                <c:pt idx="186" formatCode="General">
+                  <c:v>35075.195299999999</c:v>
+                </c:pt>
+                <c:pt idx="187" formatCode="General">
+                  <c:v>38018.933599999997</c:v>
+                </c:pt>
+                <c:pt idx="188" formatCode="General">
+                  <c:v>41209.777300000002</c:v>
+                </c:pt>
+                <c:pt idx="189" formatCode="General">
+                  <c:v>44668.367200000001</c:v>
+                </c:pt>
+                <c:pt idx="190" formatCode="General">
+                  <c:v>48417.230499999998</c:v>
+                </c:pt>
+                <c:pt idx="191" formatCode="General">
+                  <c:v>52480.777300000002</c:v>
+                </c:pt>
+                <c:pt idx="192" formatCode="General">
+                  <c:v>56885.308599999997</c:v>
+                </c:pt>
+                <c:pt idx="193" formatCode="General">
+                  <c:v>61659.496099999997</c:v>
+                </c:pt>
+                <c:pt idx="194" formatCode="General">
+                  <c:v>66834.359400000001</c:v>
+                </c:pt>
+                <c:pt idx="195" formatCode="General">
+                  <c:v>72443.617199999993</c:v>
+                </c:pt>
+                <c:pt idx="196" formatCode="General">
+                  <c:v>78523.5625</c:v>
+                </c:pt>
+                <c:pt idx="197" formatCode="General">
+                  <c:v>85113.773400000005</c:v>
+                </c:pt>
+                <c:pt idx="198" formatCode="General">
+                  <c:v>92257.171900000001</c:v>
+                </c:pt>
+                <c:pt idx="199" formatCode="General">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'019-24A-Tscan_0_2mean-b_MR (2)'!$Q$22:$Q$221</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="200"/>
+                <c:pt idx="0">
+                  <c:v>3.4477699999999997E-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.05078026E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.7592519000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.5916345400000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.5696010999999999E-5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.7186116E-5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.0685796700000002E-5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.0654662E-4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.2518140999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.47075349E-4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.7279862399999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.0302073999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.38528781E-4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.8024695299999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.2926150000000003E-4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.8684857999999998E-4</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.5450788499999998E-4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5.3400016599999996E-4</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6.27395406E-4</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7.3712592700000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>8.66047107E-4</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.0175156600000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.19547616E-3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.4045620299999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.6502145399999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.93882943E-3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.27792165E-3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.67631747E-3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3.14438879E-3</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3.6943201000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>4.3404223400000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>5.0995219499999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>5.9913722799999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>7.0391814200000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>8.2702217599999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>9.7165284699999993E-3</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.14157367E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.34120565E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.5757422900000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.8512833900000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2.1749949099999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2.55529322E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>3.00206412E-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>3.5269178499999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>4.14348841E-2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4.8677857999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>5.7186078299999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>6.7180238700000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>7.8919514999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>9.2707857500000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="50" formatCode="General">
+                  <c:v>0.108902186</c:v>
+                </c:pt>
+                <c:pt idx="51" formatCode="General">
+                  <c:v>0.127921119</c:v>
+                </c:pt>
+                <c:pt idx="52" formatCode="General">
+                  <c:v>0.150255635</c:v>
+                </c:pt>
+                <c:pt idx="53" formatCode="General">
+                  <c:v>0.17648150000000001</c:v>
+                </c:pt>
+                <c:pt idx="54" formatCode="General">
+                  <c:v>0.20727384099999999</c:v>
+                </c:pt>
+                <c:pt idx="55" formatCode="General">
+                  <c:v>0.24342344699999999</c:v>
+                </c:pt>
+                <c:pt idx="56" formatCode="General">
+                  <c:v>0.285856098</c:v>
+                </c:pt>
+                <c:pt idx="57" formatCode="General">
+                  <c:v>0.33565640400000002</c:v>
+                </c:pt>
+                <c:pt idx="58" formatCode="General">
+                  <c:v>0.39409217200000002</c:v>
+                </c:pt>
+                <c:pt idx="59" formatCode="General">
+                  <c:v>0.462644905</c:v>
+                </c:pt>
+                <c:pt idx="60" formatCode="General">
+                  <c:v>0.54304599799999997</c:v>
+                </c:pt>
+                <c:pt idx="61" formatCode="General">
+                  <c:v>0.63731354500000004</c:v>
+                </c:pt>
+                <c:pt idx="62" formatCode="General">
+                  <c:v>0.74779927700000004</c:v>
+                </c:pt>
+                <c:pt idx="63" formatCode="General">
+                  <c:v>0.87723827399999998</c:v>
+                </c:pt>
+                <c:pt idx="64" formatCode="General">
+                  <c:v>1.0288076399999999</c:v>
+                </c:pt>
+                <c:pt idx="65" formatCode="General">
+                  <c:v>1.2061852200000001</c:v>
+                </c:pt>
+                <c:pt idx="66" formatCode="General">
+                  <c:v>1.4136278600000001</c:v>
+                </c:pt>
+                <c:pt idx="67" formatCode="General">
+                  <c:v>1.6560360199999999</c:v>
+                </c:pt>
+                <c:pt idx="68" formatCode="General">
+                  <c:v>1.9390416100000001</c:v>
+                </c:pt>
+                <c:pt idx="69" formatCode="General">
+                  <c:v>2.26908398</c:v>
+                </c:pt>
+                <c:pt idx="70" formatCode="General">
+                  <c:v>2.6534948300000001</c:v>
+                </c:pt>
+                <c:pt idx="71" formatCode="General">
+                  <c:v>3.1005735400000001</c:v>
+                </c:pt>
+                <c:pt idx="72" formatCode="General">
+                  <c:v>3.6196489299999999</c:v>
+                </c:pt>
+                <c:pt idx="73" formatCode="General">
+                  <c:v>4.2211184499999996</c:v>
+                </c:pt>
+                <c:pt idx="74" formatCode="General">
+                  <c:v>4.91647005</c:v>
+                </c:pt>
+                <c:pt idx="75" formatCode="General">
+                  <c:v>5.7182312</c:v>
+                </c:pt>
+                <c:pt idx="76" formatCode="General">
+                  <c:v>6.6398706399999998</c:v>
+                </c:pt>
+                <c:pt idx="77" formatCode="General">
+                  <c:v>7.6956286399999998</c:v>
+                </c:pt>
+                <c:pt idx="78" formatCode="General">
+                  <c:v>8.9002084700000008</c:v>
+                </c:pt>
+                <c:pt idx="79" formatCode="General">
+                  <c:v>10.268359200000001</c:v>
+                </c:pt>
+                <c:pt idx="80" formatCode="General">
+                  <c:v>11.8143692</c:v>
+                </c:pt>
+                <c:pt idx="81" formatCode="General">
+                  <c:v>13.5513086</c:v>
+                </c:pt>
+                <c:pt idx="82" formatCode="General">
+                  <c:v>15.490226699999999</c:v>
+                </c:pt>
+                <c:pt idx="83" formatCode="General">
+                  <c:v>17.639215499999999</c:v>
+                </c:pt>
+                <c:pt idx="84" formatCode="General">
+                  <c:v>20.002458600000001</c:v>
+                </c:pt>
+                <c:pt idx="85" formatCode="General">
+                  <c:v>22.579193100000001</c:v>
+                </c:pt>
+                <c:pt idx="86" formatCode="General">
+                  <c:v>25.362983700000001</c:v>
+                </c:pt>
+                <c:pt idx="87" formatCode="General">
+                  <c:v>28.341182700000001</c:v>
+                </c:pt>
+                <c:pt idx="88" formatCode="General">
+                  <c:v>31.494695700000001</c:v>
+                </c:pt>
+                <c:pt idx="89" formatCode="General">
+                  <c:v>34.798454300000003</c:v>
+                </c:pt>
+                <c:pt idx="90" formatCode="General">
+                  <c:v>38.2222176</c:v>
+                </c:pt>
+                <c:pt idx="91" formatCode="General">
+                  <c:v>41.731803900000003</c:v>
+                </c:pt>
+                <c:pt idx="92" formatCode="General">
+                  <c:v>45.291145299999997</c:v>
+                </c:pt>
+                <c:pt idx="93" formatCode="General">
+                  <c:v>48.863834400000002</c:v>
+                </c:pt>
+                <c:pt idx="94" formatCode="General">
+                  <c:v>52.415363300000003</c:v>
+                </c:pt>
+                <c:pt idx="95" formatCode="General">
+                  <c:v>55.914775800000001</c:v>
+                </c:pt>
+                <c:pt idx="96" formatCode="General">
+                  <c:v>59.335998500000002</c:v>
+                </c:pt>
+                <c:pt idx="97" formatCode="General">
+                  <c:v>62.658760100000002</c:v>
+                </c:pt>
+                <c:pt idx="98" formatCode="General">
+                  <c:v>65.868774400000007</c:v>
+                </c:pt>
+                <c:pt idx="99" formatCode="General">
+                  <c:v>68.9578171</c:v>
+                </c:pt>
+                <c:pt idx="100" formatCode="General">
+                  <c:v>71.922996499999996</c:v>
+                </c:pt>
+                <c:pt idx="101" formatCode="General">
+                  <c:v>74.766403199999999</c:v>
+                </c:pt>
+                <c:pt idx="102" formatCode="General">
+                  <c:v>77.493614199999996</c:v>
+                </c:pt>
+                <c:pt idx="103" formatCode="General">
+                  <c:v>80.113395699999998</c:v>
+                </c:pt>
+                <c:pt idx="104" formatCode="General">
+                  <c:v>82.636505099999994</c:v>
+                </c:pt>
+                <c:pt idx="105" formatCode="General">
+                  <c:v>85.074485800000005</c:v>
+                </c:pt>
+                <c:pt idx="106" formatCode="General">
+                  <c:v>87.439788800000002</c:v>
+                </c:pt>
+                <c:pt idx="107" formatCode="General">
+                  <c:v>89.744361900000001</c:v>
+                </c:pt>
+                <c:pt idx="108" formatCode="General">
+                  <c:v>91.999191300000007</c:v>
+                </c:pt>
+                <c:pt idx="109" formatCode="General">
+                  <c:v>94.214088399999994</c:v>
+                </c:pt>
+                <c:pt idx="110" formatCode="General">
+                  <c:v>96.397186300000001</c:v>
+                </c:pt>
+                <c:pt idx="111" formatCode="General">
+                  <c:v>98.554695100000004</c:v>
+                </c:pt>
+                <c:pt idx="112" formatCode="General">
+                  <c:v>100.690865</c:v>
+                </c:pt>
+                <c:pt idx="113" formatCode="General">
+                  <c:v>102.80777</c:v>
+                </c:pt>
+                <c:pt idx="114" formatCode="General">
+                  <c:v>104.905922</c:v>
+                </c:pt>
+                <c:pt idx="115" formatCode="General">
+                  <c:v>106.984238</c:v>
+                </c:pt>
+                <c:pt idx="116" formatCode="General">
+                  <c:v>109.040192</c:v>
+                </c:pt>
+                <c:pt idx="117" formatCode="General">
+                  <c:v>111.070778</c:v>
+                </c:pt>
+                <c:pt idx="118" formatCode="General">
+                  <c:v>113.07205999999999</c:v>
+                </c:pt>
+                <c:pt idx="119" formatCode="General">
+                  <c:v>115.040344</c:v>
+                </c:pt>
+                <c:pt idx="120" formatCode="General">
+                  <c:v>116.97199999999999</c:v>
+                </c:pt>
+                <c:pt idx="121" formatCode="General">
+                  <c:v>118.86409</c:v>
+                </c:pt>
+                <c:pt idx="122" formatCode="General">
+                  <c:v>120.71410400000001</c:v>
+                </c:pt>
+                <c:pt idx="123" formatCode="General">
+                  <c:v>122.520523</c:v>
+                </c:pt>
+                <c:pt idx="124" formatCode="General">
+                  <c:v>124.282402</c:v>
+                </c:pt>
+                <c:pt idx="125" formatCode="General">
+                  <c:v>125.999802</c:v>
+                </c:pt>
+                <c:pt idx="126" formatCode="General">
+                  <c:v>127.673042</c:v>
+                </c:pt>
+                <c:pt idx="127" formatCode="General">
+                  <c:v>129.30311599999999</c:v>
+                </c:pt>
+                <c:pt idx="128" formatCode="General">
+                  <c:v>130.89158599999999</c:v>
+                </c:pt>
+                <c:pt idx="129" formatCode="General">
+                  <c:v>132.439514</c:v>
+                </c:pt>
+                <c:pt idx="130" formatCode="General">
+                  <c:v>133.94935599999999</c:v>
+                </c:pt>
+                <c:pt idx="131" formatCode="General">
+                  <c:v>135.42330899999999</c:v>
+                </c:pt>
+                <c:pt idx="132" formatCode="General">
+                  <c:v>136.86402899999999</c:v>
+                </c:pt>
+                <c:pt idx="133" formatCode="General">
+                  <c:v>138.27462800000001</c:v>
+                </c:pt>
+                <c:pt idx="134" formatCode="General">
+                  <c:v>139.658951</c:v>
+                </c:pt>
+                <c:pt idx="135" formatCode="General">
+                  <c:v>141.020905</c:v>
+                </c:pt>
+                <c:pt idx="136" formatCode="General">
+                  <c:v>142.36473100000001</c:v>
+                </c:pt>
+                <c:pt idx="137" formatCode="General">
+                  <c:v>143.69523599999999</c:v>
+                </c:pt>
+                <c:pt idx="138" formatCode="General">
+                  <c:v>145.016739</c:v>
+                </c:pt>
+                <c:pt idx="139" formatCode="General">
+                  <c:v>146.334</c:v>
+                </c:pt>
+                <c:pt idx="140" formatCode="General">
+                  <c:v>147.65107699999999</c:v>
+                </c:pt>
+                <c:pt idx="141" formatCode="General">
+                  <c:v>148.97212200000001</c:v>
+                </c:pt>
+                <c:pt idx="142" formatCode="General">
+                  <c:v>150.30107100000001</c:v>
+                </c:pt>
+                <c:pt idx="143" formatCode="General">
+                  <c:v>151.641479</c:v>
+                </c:pt>
+                <c:pt idx="144" formatCode="General">
+                  <c:v>152.99719200000001</c:v>
+                </c:pt>
+                <c:pt idx="145" formatCode="General">
+                  <c:v>154.37228400000001</c:v>
+                </c:pt>
+                <c:pt idx="146" formatCode="General">
+                  <c:v>155.77044699999999</c:v>
+                </c:pt>
+                <c:pt idx="147" formatCode="General">
+                  <c:v>157.19574</c:v>
+                </c:pt>
+                <c:pt idx="148" formatCode="General">
+                  <c:v>158.652298</c:v>
+                </c:pt>
+                <c:pt idx="149" formatCode="General">
+                  <c:v>160.14376799999999</c:v>
+                </c:pt>
+                <c:pt idx="150" formatCode="General">
+                  <c:v>161.67411799999999</c:v>
+                </c:pt>
+                <c:pt idx="151" formatCode="General">
+                  <c:v>163.245926</c:v>
+                </c:pt>
+                <c:pt idx="152" formatCode="General">
+                  <c:v>164.861008</c:v>
+                </c:pt>
+                <c:pt idx="153" formatCode="General">
+                  <c:v>166.52003500000001</c:v>
+                </c:pt>
+                <c:pt idx="154" formatCode="General">
+                  <c:v>168.22207599999999</c:v>
+                </c:pt>
+                <c:pt idx="155" formatCode="General">
+                  <c:v>169.96485899999999</c:v>
+                </c:pt>
+                <c:pt idx="156" formatCode="General">
+                  <c:v>171.744339</c:v>
+                </c:pt>
+                <c:pt idx="157" formatCode="General">
+                  <c:v>173.55612199999999</c:v>
+                </c:pt>
+                <c:pt idx="158" formatCode="General">
+                  <c:v>175.39465300000001</c:v>
+                </c:pt>
+                <c:pt idx="159" formatCode="General">
+                  <c:v>177.25401299999999</c:v>
+                </c:pt>
+                <c:pt idx="160" formatCode="General">
+                  <c:v>179.12887599999999</c:v>
+                </c:pt>
+                <c:pt idx="161" formatCode="General">
+                  <c:v>181.014679</c:v>
+                </c:pt>
+                <c:pt idx="162" formatCode="General">
+                  <c:v>182.907974</c:v>
+                </c:pt>
+                <c:pt idx="163" formatCode="General">
+                  <c:v>184.80697599999999</c:v>
+                </c:pt>
+                <c:pt idx="164" formatCode="General">
+                  <c:v>186.711792</c:v>
+                </c:pt>
+                <c:pt idx="165" formatCode="General">
+                  <c:v>188.62356600000001</c:v>
+                </c:pt>
+                <c:pt idx="166" formatCode="General">
+                  <c:v>190.54598999999999</c:v>
+                </c:pt>
+                <c:pt idx="167" formatCode="General">
+                  <c:v>192.48376500000001</c:v>
+                </c:pt>
+                <c:pt idx="168" formatCode="General">
+                  <c:v>194.443375</c:v>
+                </c:pt>
+                <c:pt idx="169" formatCode="General">
+                  <c:v>196.43254099999999</c:v>
+                </c:pt>
+                <c:pt idx="170" formatCode="General">
+                  <c:v>198.45996099999999</c:v>
+                </c:pt>
+                <c:pt idx="171" formatCode="General">
+                  <c:v>200.53526299999999</c:v>
+                </c:pt>
+                <c:pt idx="172" formatCode="General">
+                  <c:v>202.66928100000001</c:v>
+                </c:pt>
+                <c:pt idx="173" formatCode="General">
+                  <c:v>204.87361100000001</c:v>
+                </c:pt>
+                <c:pt idx="174" formatCode="General">
+                  <c:v>207.15978999999999</c:v>
+                </c:pt>
+                <c:pt idx="175" formatCode="General">
+                  <c:v>209.54098500000001</c:v>
+                </c:pt>
+                <c:pt idx="176" formatCode="General">
+                  <c:v>212.03041099999999</c:v>
+                </c:pt>
+                <c:pt idx="177" formatCode="General">
+                  <c:v>214.64186100000001</c:v>
+                </c:pt>
+                <c:pt idx="178" formatCode="General">
+                  <c:v>217.38966400000001</c:v>
+                </c:pt>
+                <c:pt idx="179" formatCode="General">
+                  <c:v>220.288803</c:v>
+                </c:pt>
+                <c:pt idx="180" formatCode="General">
+                  <c:v>223.354874</c:v>
+                </c:pt>
+                <c:pt idx="181" formatCode="General">
+                  <c:v>226.603058</c:v>
+                </c:pt>
+                <c:pt idx="182" formatCode="General">
+                  <c:v>230.049271</c:v>
+                </c:pt>
+                <c:pt idx="183" formatCode="General">
+                  <c:v>233.70954900000001</c:v>
+                </c:pt>
+                <c:pt idx="184" formatCode="General">
+                  <c:v>237.59991500000001</c:v>
+                </c:pt>
+                <c:pt idx="185" formatCode="General">
+                  <c:v>241.736053</c:v>
+                </c:pt>
+                <c:pt idx="186" formatCode="General">
+                  <c:v>246.13270600000001</c:v>
+                </c:pt>
+                <c:pt idx="187" formatCode="General">
+                  <c:v>250.804855</c:v>
+                </c:pt>
+                <c:pt idx="188" formatCode="General">
+                  <c:v>255.76632699999999</c:v>
+                </c:pt>
+                <c:pt idx="189" formatCode="General">
+                  <c:v>261.029877</c:v>
+                </c:pt>
+                <c:pt idx="190" formatCode="General">
+                  <c:v>266.60763500000002</c:v>
+                </c:pt>
+                <c:pt idx="191" formatCode="General">
+                  <c:v>272.511169</c:v>
+                </c:pt>
+                <c:pt idx="192" formatCode="General">
+                  <c:v>278.75109900000001</c:v>
+                </c:pt>
+                <c:pt idx="193" formatCode="General">
+                  <c:v>285.33804300000003</c:v>
+                </c:pt>
+                <c:pt idx="194" formatCode="General">
+                  <c:v>292.28332499999999</c:v>
+                </c:pt>
+                <c:pt idx="195" formatCode="General">
+                  <c:v>299.59857199999999</c:v>
+                </c:pt>
+                <c:pt idx="196" formatCode="General">
+                  <c:v>307.29702800000001</c:v>
+                </c:pt>
+                <c:pt idx="197" formatCode="General">
+                  <c:v>315.39407299999999</c:v>
+                </c:pt>
+                <c:pt idx="198" formatCode="General">
+                  <c:v>323.90798999999998</c:v>
+                </c:pt>
+                <c:pt idx="199" formatCode="General">
+                  <c:v>332.85931399999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-D472-40B5-AD83-DF3373B7CA3A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'019-24A-Tscan_0_2mean-b_MR (2)'!$E$22:$E$152</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="131"/>
+                <c:pt idx="0">
+                  <c:v>0.62528499999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.68997200000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.76133899999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.84010600000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.92701500000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0229140000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.128727</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.2454860000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.3743320000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.516507</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.673386</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.8465069999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.037509</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.2482950000000002</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.4808669999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.737527</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.0207199999999998</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.3332099999999998</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.6780240000000002</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.0584740000000004</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4.4783099999999996</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4.941592</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5.4528429999999997</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>6.0168590000000002</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>6.639354</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>7.3261750000000001</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>8.0839770000000009</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>8.9203250000000001</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>9.8430359999999997</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>10.861338</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>11.985007</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>13.224710999999999</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>14.592787</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>16.102506000000002</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>17.768221</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>19.606316</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>21.634505999999998</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>23.872581</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>26.342285</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>29.067056999999998</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>32.074249999999999</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>35.392277</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>39.053334</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43.093491</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>47.551606999999997</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>52.470292000000001</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>57.898162999999997</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>63.887746999999997</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>70.496559000000005</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>77.789958999999996</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>85.836971000000005</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>94.715996000000004</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>104.514487</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>115.32602900000001</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>127.25666</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>140.42075600000001</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>154.94723999999999</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>170.97716399999999</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>188.66440900000001</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>208.181352</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>229.718129</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>253.48118400000001</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>279.70438899999999</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>308.63617599999998</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>340.566509</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>375.79475400000001</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>414.67521699999998</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>457.56737900000002</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>504.90273400000001</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>557.13775499999997</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>614.76955599999997</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>678.36396000000002</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>748.54856600000005</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>825.98328500000002</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>911.42971399999999</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1005.7105790000001</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1109.744825</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1224.55872</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1351.2234619999999</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1491.0218480000001</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1645.2520420000001</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1815.460358</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>2003.2557280000001</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>2210.4891579999999</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>2439.1480790000001</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>2691.4778660000002</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>2969.898756</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>3277.1277709999999</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>3616.1625570000001</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>3990.2244700000001</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>4403.0318610000004</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>4858.489681</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>5361.1103940000003</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>5915.6909539999997</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>6527.6652860000004</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>7202.9355150000001</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>7948.0458870000002</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>8770.3044590000009</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>9677.6346790000007</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>10678.774632000001</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>11783.382065</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>13002.326367</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>14347.446784</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>15831.632416</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>17469.392011</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>19276.756142999999</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>21270.716877999999</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>23471.195092999998</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>25899.385814000001</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>28578.679057000001</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>31534.908739999999</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>34796.892742000004</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>38396.969883999998</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>42368.937499</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>46751.661594999998</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>51588.147111999999</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>56924.904496000003</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>62813.267070000002</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>69311.891980999993</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>76482.343603999994</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>84393.907934000003</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>93123.962157000002</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>102757.549701</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>113387.948951</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>125117.968205</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>138059.71566099999</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>152343.86639499999</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>168103.01579999999</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>185492.041402</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>204680.957807</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>225853.44401599999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'019-24A-Tscan_0_2mean-b_MR (2)'!$F$22:$F$152</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="131"/>
+                <c:pt idx="0">
+                  <c:v>9.1067023260125002E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.11199402643044</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.13806410734819999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.17055782445746001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.21105128484907501</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.26148485135817001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.32423122149803002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.40218119202030006</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.49882469098110005</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.61834894288117503</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.76575938066485005</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.94696766314650493</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.16893784175861</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.4397964493489501</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.7689384890691249</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.1671457293772001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.6466513439256003</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.2212749917485501</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.906406008508081</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.7191147313425503</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5.6781403154338497</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>6.8037740427681204</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>8.1176630510236247</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>9.642957824921961</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>11.45783</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>13.681141999999999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>16.126014999999999</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>18.789950999999999</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>21.668075999999999</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>24.752089000000002</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>28.030187000000002</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31.48883</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>35.111758000000002</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>38.879928</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>42.773451000000001</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>46.770955999999998</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>50.850574000000002</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>54.990188000000003</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>59.167230000000004</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>63.361457000000001</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>67.552110999999996</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>71.720388999999997</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>75.849874</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>79.925325000000001</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>83.933324999999996</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>87.863731999999999</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>91.708008000000007</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>95.459474999999998</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>99.114474999999999</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>102.67011599999999</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>106.126203</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>109.48462000000001</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>112.747878</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>115.920556</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>119.00782599999999</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>122.016403</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>124.953577</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>127.82699100000001</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>130.645197</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>133.41708</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>136.15136100000001</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>138.85754800000001</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>141.54427200000001</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>144.22150999999999</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>146.897493</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>149.58206799999999</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>152.282849</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>155.00942599999999</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>157.77001200000001</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>160.572363</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>163.42490000000001</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>166.33592999999999</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>169.31233399999999</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>172.36219700000001</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>175.492852</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>178.71195299999999</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>182.027424</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>185.44552400000001</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>188.975256</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>192.62269699999999</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>196.396827</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>200.304509</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>204.35447400000001</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>208.55450500000001</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>212.91364999999999</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>217.440179</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>222.143507</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>227.033278</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>232.11828</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>237.41</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>242.91754700000001</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>248.653153</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>254.62707399999999</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>260.851719</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>267.33872200000002</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>274.10049400000003</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>281.15050400000001</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>288.50111700000002</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>296.16503</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>304.15521699999999</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>312.48619000000002</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>321.17089499999997</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>330.22086999999999</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>339.64907599999998</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>349.46734099999998</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>359.68214899999998</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>370.305318</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>381.34101399999997</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>392.79097000000002</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>404.65307999999999</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>416.92149000000001</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>429.58570200000003</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>442.61885799999999</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>455.99157500000001</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>469.66068300000001</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>483.56357300000002</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>497.61883799999998</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>511.72683000000001</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>525.74690299999997</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>539.50861899999995</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>552.79830000000004</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>565.34648800000002</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>576.81796399999996</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>586.80112399999996</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>594.79262200000005</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>600.19885799999997</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>602.28492600000004</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>600.21723999999995</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>593.01917700000001</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>579.57245699999999</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>558.60200199999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-D472-40B5-AD83-DF3373B7CA3A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'019-24A-Tscan_0_2mean-b_MR (2)'!$E$22:$E$152</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="131"/>
+                <c:pt idx="0">
+                  <c:v>0.62528499999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.68997200000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.76133899999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.84010600000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.92701500000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0229140000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.128727</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.2454860000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.3743320000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.516507</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.673386</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.8465069999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.037509</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.2482950000000002</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.4808669999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.737527</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.0207199999999998</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.3332099999999998</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.6780240000000002</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.0584740000000004</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4.4783099999999996</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4.941592</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5.4528429999999997</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>6.0168590000000002</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>6.639354</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>7.3261750000000001</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>8.0839770000000009</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>8.9203250000000001</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>9.8430359999999997</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>10.861338</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>11.985007</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>13.224710999999999</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>14.592787</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>16.102506000000002</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>17.768221</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>19.606316</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>21.634505999999998</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>23.872581</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>26.342285</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>29.067056999999998</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>32.074249999999999</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>35.392277</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>39.053334</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43.093491</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>47.551606999999997</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>52.470292000000001</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>57.898162999999997</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>63.887746999999997</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>70.496559000000005</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>77.789958999999996</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>85.836971000000005</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>94.715996000000004</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>104.514487</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>115.32602900000001</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>127.25666</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>140.42075600000001</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>154.94723999999999</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>170.97716399999999</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>188.66440900000001</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>208.181352</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>229.718129</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>253.48118400000001</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>279.70438899999999</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>308.63617599999998</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>340.566509</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>375.79475400000001</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>414.67521699999998</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>457.56737900000002</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>504.90273400000001</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>557.13775499999997</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>614.76955599999997</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>678.36396000000002</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>748.54856600000005</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>825.98328500000002</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>911.42971399999999</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1005.7105790000001</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1109.744825</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1224.55872</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1351.2234619999999</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1491.0218480000001</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1645.2520420000001</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1815.460358</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>2003.2557280000001</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>2210.4891579999999</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>2439.1480790000001</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>2691.4778660000002</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>2969.898756</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>3277.1277709999999</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>3616.1625570000001</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>3990.2244700000001</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>4403.0318610000004</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>4858.489681</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>5361.1103940000003</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>5915.6909539999997</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>6527.6652860000004</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>7202.9355150000001</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>7948.0458870000002</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>8770.3044590000009</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>9677.6346790000007</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>10678.774632000001</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>11783.382065</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>13002.326367</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>14347.446784</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>15831.632416</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>17469.392011</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>19276.756142999999</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>21270.716877999999</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>23471.195092999998</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>25899.385814000001</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>28578.679057000001</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>31534.908739999999</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>34796.892742000004</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>38396.969883999998</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>42368.937499</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>46751.661594999998</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>51588.147111999999</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>56924.904496000003</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>62813.267070000002</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>69311.891980999993</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>76482.343603999994</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>84393.907934000003</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>93123.962157000002</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>102757.549701</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>113387.948951</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>125117.968205</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>138059.71566099999</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>152343.86639499999</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>168103.01579999999</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>185492.041402</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>204680.957807</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>225853.44401599999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'019-24A-Tscan_0_2mean-b_MR (2)'!$G$22:$G$152</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="131"/>
+                <c:pt idx="0">
+                  <c:v>2.648015</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.9512139999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.2971599999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.691262</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.139411</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.6477709999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.2227980000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.8711099999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.5992350000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.4135549999999997</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.320195</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9.3244129999999998</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>10.431077999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>11.643542</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>12.964225000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>14.393520000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>15.930286000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17.571241000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19.310794000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>21.141465</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>23.053097000000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>25.033427</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>27.067325</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>29.139208</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>31.230201999999998</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>33.320925000000003</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>35.391615000000002</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>37.420630000000003</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>39.388035000000002</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>41.273287000000003</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>43.056939</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>44.722082999999998</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>46.252890000000001</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>47.635643999999999</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>48.860008000000001</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>49.917791999999999</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>50.804062000000002</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>51.516621999999998</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>52.055919000000003</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>52.426105</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>52.632568999999997</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>52.684024000000001</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>52.591073000000002</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>52.365668999999997</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>52.021461000000002</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>51.573475999999999</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>51.036991999999998</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>50.428001999999999</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>49.762892000000001</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49.057530999999997</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>48.328085000000002</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>47.589962</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>46.857821000000001</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>46.145958</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>45.467578000000003</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>44.835273000000001</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>44.260564000000002</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>43.754153000000002</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>43.325969999999998</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>42.985005000000001</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>42.739438</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>42.596868000000001</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>42.563977999999999</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>42.647205999999997</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>42.852003000000003</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>43.183881</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>43.647368999999998</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>44.247295999999999</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>44.987867999999999</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>45.873078999999997</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>46.907017000000003</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>48.093786999999999</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>49.437081999999997</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>50.941018999999997</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>52.609693999999998</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>54.447481000000003</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>56.459190999999997</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>58.649213000000003</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>61.023268999999999</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>63.586505000000002</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>66.345381000000003</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>69.306257000000002</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>72.476541999999995</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>75.864034000000004</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>79.477622999999994</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>83.326667</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>87.421717000000001</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>91.774529999999999</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>96.397245999999996</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>101.304495</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>106.51115</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>112.034829</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>117.89403900000001</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>124.109928</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>130.705523</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>137.70638299999999</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>145.14154199999999</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>153.04238699999999</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>161.44352799999999</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>170.383634</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>179.90713700000001</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>190.06282200000001</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>200.90378200000001</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>212.49074400000001</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>224.89196999999999</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>238.17989</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>252.44107700000001</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>267.76944900000001</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>284.26919400000003</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>302.05716999999999</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>321.26582999999999</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>342.046314</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>364.55917799999997</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>388.98997000000003</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>415.548317</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>444.46423600000003</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>475.99397099999999</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>510.43274200000002</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>548.09691799999996</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>589.34214599999996</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>634.56915500000002</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>684.222216</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>738.79199900000003</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>798.82399899999996</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>864.92395199999999</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>937.81370200000003</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>1018.290164</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>1107.3679990000001</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>1206.382402</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>1317.206222</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>1442.71082</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-D472-40B5-AD83-DF3373B7CA3A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>viscos</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'019-24A-Tscan_0_2mean-b_MR (2)'!$E$22:$E$152</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="131"/>
+                <c:pt idx="0">
+                  <c:v>0.62528499999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.68997200000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.76133899999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.84010600000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.92701500000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0229140000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.128727</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.2454860000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.3743320000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.516507</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.673386</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.8465069999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.037509</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.2482950000000002</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.4808669999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.737527</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.0207199999999998</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.3332099999999998</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.6780240000000002</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.0584740000000004</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4.4783099999999996</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4.941592</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5.4528429999999997</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>6.0168590000000002</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>6.639354</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>7.3261750000000001</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>8.0839770000000009</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>8.9203250000000001</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>9.8430359999999997</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>10.861338</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>11.985007</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>13.224710999999999</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>14.592787</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>16.102506000000002</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>17.768221</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>19.606316</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>21.634505999999998</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>23.872581</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>26.342285</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>29.067056999999998</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>32.074249999999999</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>35.392277</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>39.053334</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43.093491</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>47.551606999999997</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>52.470292000000001</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>57.898162999999997</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>63.887746999999997</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>70.496559000000005</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>77.789958999999996</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>85.836971000000005</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>94.715996000000004</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>104.514487</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>115.32602900000001</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>127.25666</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>140.42075600000001</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>154.94723999999999</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>170.97716399999999</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>188.66440900000001</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>208.181352</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>229.718129</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>253.48118400000001</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>279.70438899999999</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>308.63617599999998</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>340.566509</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>375.79475400000001</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>414.67521699999998</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>457.56737900000002</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>504.90273400000001</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>557.13775499999997</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>614.76955599999997</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>678.36396000000002</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>748.54856600000005</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>825.98328500000002</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>911.42971399999999</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1005.7105790000001</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1109.744825</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1224.55872</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1351.2234619999999</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1491.0218480000001</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1645.2520420000001</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1815.460358</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>2003.2557280000001</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>2210.4891579999999</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>2439.1480790000001</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>2691.4778660000002</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>2969.898756</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>3277.1277709999999</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>3616.1625570000001</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>3990.2244700000001</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>4403.0318610000004</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>4858.489681</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>5361.1103940000003</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>5915.6909539999997</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>6527.6652860000004</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>7202.9355150000001</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>7948.0458870000002</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>8770.3044590000009</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>9677.6346790000007</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>10678.774632000001</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>11783.382065</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>13002.326367</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>14347.446784</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>15831.632416</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>17469.392011</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>19276.756142999999</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>21270.716877999999</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>23471.195092999998</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>25899.385814000001</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>28578.679057000001</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>31534.908739999999</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>34796.892742000004</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>38396.969883999998</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>42368.937499</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>46751.661594999998</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>51588.147111999999</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>56924.904496000003</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>62813.267070000002</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>69311.891980999993</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>76482.343603999994</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>84393.907934000003</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>93123.962157000002</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>102757.549701</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>113387.948951</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>125117.968205</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>138059.71566099999</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>152343.86639499999</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>168103.01579999999</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>185492.041402</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>204680.957807</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>225853.44401599999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'019-24A-Tscan_0_2mean-b_MR (2)'!$I$22:$I$152</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="131"/>
+                <c:pt idx="0">
+                  <c:v>4.3142670000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.3650820000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.4235680000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.4881520000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.5576889999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.6308119999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.7062299999999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.7825930000000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.8584350000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.9323779999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.0030910000000004</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.0690109999999997</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.1290339999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.1816120000000003</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.2257059999999997</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.2599749999999998</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5.2835159999999997</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5.2953780000000004</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5.294778</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.2812469999999996</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5.2542660000000003</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5.2136560000000003</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5.1592289999999998</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5.0914739999999998</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5.010383</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4.9166499999999997</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4.8110419999999996</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>4.6941350000000002</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4.5671559999999998</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4.4309820000000002</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>4.2867689999999996</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>4.1358649999999999</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.979387</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3.8185509999999998</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3.6546949999999998</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3.4889510000000001</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3.3225020000000001</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3.1564130000000001</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2.991663</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2.8292679999999999</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2.669921</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2.5144220000000002</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2.3633980000000001</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2.2173229999999999</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2.076635</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.9417009999999999</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.8127169999999999</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.6898489999999999</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.573204</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.462764</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.35853</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1.2604040000000001</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1.1682330000000001</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1.081871</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1.0011080000000001</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.92574000000000001</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.85552300000000003</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.790211</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.72955999999999999</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.67331099999999999</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.62120500000000001</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.57299800000000001</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.52843499999999999</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.48728900000000003</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.44931100000000002</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.414298</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.382021</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.3523</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.32493100000000003</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.29974000000000001</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.27656399999999998</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.255245</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.23563200000000001</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.21759800000000001</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.201013</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.18576100000000001</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.171735</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.158832</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.14696600000000001</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.136045</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.125999</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.11675000000000001</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.108237</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.100396</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>9.3174000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>8.6516999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>8.0381999999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>7.4723999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>6.9503999999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>6.4687999999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>6.0241000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>5.6134000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>5.2338999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>4.8830999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>4.5587999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>4.2585999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>3.9808999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>3.7236999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>3.4854999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>3.2647000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>3.0599999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>2.8701999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>2.6941E-2</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>2.5305999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>2.3789000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>2.2379E-2</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>2.1069999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>1.9852999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>1.8721000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>1.7669000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>1.6691000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>1.5781E-2</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>1.4933999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>1.4146000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>1.3414000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>1.2732E-2</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>1.2097E-2</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>1.1507E-2</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>1.0958000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>1.0447E-2</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>9.972E-3</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>9.5309999999999995E-3</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>9.1210000000000006E-3</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>8.7419999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>8.3899999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>8.0649999999999993E-3</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>7.7660000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>7.4929999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>7.247E-3</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>7.0309999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>6.8500000000000002E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-D472-40B5-AD83-DF3373B7CA3A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>simG''</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'019-24A-Tscan_0_2mean-b_MR (2)'!$P$22:$P$221</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="200"/>
+                <c:pt idx="0">
+                  <c:v>1.08392686E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1748977000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.2735031500000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.38038425E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.49623547E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.62181016E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.7579237000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.9054606599999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.0653804800000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.2387212100000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.42660996E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.6302676600000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.8510185E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.0902955700000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.34965438E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.6307800600000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.93550098E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.2657952800000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.6238098300000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.01187295E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5.4325036700000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5.8884363600000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>6.3826337499999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>6.9183103699999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>7.4989423200000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>8.1283047799999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>8.8104896200000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>9.5499262200000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="28" formatCode="General">
+                  <c:v>0.10351421700000001</c:v>
+                </c:pt>
+                <c:pt idx="29" formatCode="General">
+                  <c:v>0.11220184699999999</c:v>
+                </c:pt>
+                <c:pt idx="30" formatCode="General">
+                  <c:v>0.121618591</c:v>
+                </c:pt>
+                <c:pt idx="31" formatCode="General">
+                  <c:v>0.13182567100000001</c:v>
+                </c:pt>
+                <c:pt idx="32" formatCode="General">
+                  <c:v>0.14288940999999999</c:v>
+                </c:pt>
+                <c:pt idx="33" formatCode="General">
+                  <c:v>0.15488165600000001</c:v>
+                </c:pt>
+                <c:pt idx="34" formatCode="General">
+                  <c:v>0.167880416</c:v>
+                </c:pt>
+                <c:pt idx="35" formatCode="General">
+                  <c:v>0.18197007500000001</c:v>
+                </c:pt>
+                <c:pt idx="36" formatCode="General">
+                  <c:v>0.19724227499999999</c:v>
+                </c:pt>
+                <c:pt idx="37" formatCode="General">
+                  <c:v>0.21379619799999999</c:v>
+                </c:pt>
+                <c:pt idx="38" formatCode="General">
+                  <c:v>0.231739476</c:v>
+                </c:pt>
+                <c:pt idx="39" formatCode="General">
+                  <c:v>0.25118863600000002</c:v>
+                </c:pt>
+                <c:pt idx="40" formatCode="General">
+                  <c:v>0.27227014300000002</c:v>
+                </c:pt>
+                <c:pt idx="41" formatCode="General">
+                  <c:v>0.29512095500000002</c:v>
+                </c:pt>
+                <c:pt idx="42" formatCode="General">
+                  <c:v>0.31988951599999998</c:v>
+                </c:pt>
+                <c:pt idx="43" formatCode="General">
+                  <c:v>0.34673687800000003</c:v>
+                </c:pt>
+                <c:pt idx="44" formatCode="General">
+                  <c:v>0.37583741500000001</c:v>
+                </c:pt>
+                <c:pt idx="45" formatCode="General">
+                  <c:v>0.40738028300000001</c:v>
+                </c:pt>
+                <c:pt idx="46" formatCode="General">
+                  <c:v>0.44157046100000003</c:v>
+                </c:pt>
+                <c:pt idx="47" formatCode="General">
+                  <c:v>0.478630096</c:v>
+                </c:pt>
+                <c:pt idx="48" formatCode="General">
+                  <c:v>0.51880002000000003</c:v>
+                </c:pt>
+                <c:pt idx="49" formatCode="General">
+                  <c:v>0.56234133200000003</c:v>
+                </c:pt>
+                <c:pt idx="50" formatCode="General">
+                  <c:v>0.609536886</c:v>
+                </c:pt>
+                <c:pt idx="51" formatCode="General">
+                  <c:v>0.66069346699999998</c:v>
+                </c:pt>
+                <c:pt idx="52" formatCode="General">
+                  <c:v>0.71614342900000005</c:v>
+                </c:pt>
+                <c:pt idx="53" formatCode="General">
+                  <c:v>0.77624714399999994</c:v>
+                </c:pt>
+                <c:pt idx="54" formatCode="General">
+                  <c:v>0.84139514000000004</c:v>
+                </c:pt>
+                <c:pt idx="55" formatCode="General">
+                  <c:v>0.91201084899999996</c:v>
+                </c:pt>
+                <c:pt idx="56" formatCode="General">
+                  <c:v>0.98855310699999999</c:v>
+                </c:pt>
+                <c:pt idx="57" formatCode="General">
+                  <c:v>1.0715193700000001</c:v>
+                </c:pt>
+                <c:pt idx="58" formatCode="General">
+                  <c:v>1.1614485999999999</c:v>
+                </c:pt>
+                <c:pt idx="59" formatCode="General">
+                  <c:v>1.2589254400000001</c:v>
+                </c:pt>
+                <c:pt idx="60" formatCode="General">
+                  <c:v>1.36458313</c:v>
+                </c:pt>
+                <c:pt idx="61" formatCode="General">
+                  <c:v>1.47910845</c:v>
+                </c:pt>
+                <c:pt idx="62" formatCode="General">
+                  <c:v>1.6032455000000001</c:v>
+                </c:pt>
+                <c:pt idx="63" formatCode="General">
+                  <c:v>1.73780084</c:v>
+                </c:pt>
+                <c:pt idx="64" formatCode="General">
+                  <c:v>1.8836491099999999</c:v>
+                </c:pt>
+                <c:pt idx="65" formatCode="General">
+                  <c:v>2.0417380299999999</c:v>
+                </c:pt>
+                <c:pt idx="66" formatCode="General">
+                  <c:v>2.21309471</c:v>
+                </c:pt>
+                <c:pt idx="67" formatCode="General">
+                  <c:v>2.3988328000000001</c:v>
+                </c:pt>
+                <c:pt idx="68" formatCode="General">
+                  <c:v>2.6001596500000002</c:v>
+                </c:pt>
+                <c:pt idx="69" formatCode="General">
+                  <c:v>2.81838298</c:v>
+                </c:pt>
+                <c:pt idx="70" formatCode="General">
+                  <c:v>3.0549211500000002</c:v>
+                </c:pt>
+                <c:pt idx="71" formatCode="General">
+                  <c:v>3.3113110099999998</c:v>
+                </c:pt>
+                <c:pt idx="72" formatCode="General">
+                  <c:v>3.5892193300000002</c:v>
+                </c:pt>
+                <c:pt idx="73" formatCode="General">
+                  <c:v>3.89045167</c:v>
+                </c:pt>
+                <c:pt idx="74" formatCode="General">
+                  <c:v>4.2169651999999997</c:v>
+                </c:pt>
+                <c:pt idx="75" formatCode="General">
+                  <c:v>4.5708823199999999</c:v>
+                </c:pt>
+                <c:pt idx="76" formatCode="General">
+                  <c:v>4.9545016300000002</c:v>
+                </c:pt>
+                <c:pt idx="77" formatCode="General">
+                  <c:v>5.3703184100000003</c:v>
+                </c:pt>
+                <c:pt idx="78" formatCode="General">
+                  <c:v>5.8210320500000003</c:v>
+                </c:pt>
+                <c:pt idx="79" formatCode="General">
+                  <c:v>6.3095736499999999</c:v>
+                </c:pt>
+                <c:pt idx="80" formatCode="General">
+                  <c:v>6.8391170499999996</c:v>
+                </c:pt>
+                <c:pt idx="81" formatCode="General">
+                  <c:v>7.41310263</c:v>
+                </c:pt>
+                <c:pt idx="82" formatCode="General">
+                  <c:v>8.0352621099999997</c:v>
+                </c:pt>
+                <c:pt idx="83" formatCode="General">
+                  <c:v>8.7096357300000005</c:v>
+                </c:pt>
+                <c:pt idx="84" formatCode="General">
+                  <c:v>9.4406089800000004</c:v>
+                </c:pt>
+                <c:pt idx="85" formatCode="General">
+                  <c:v>10.232929199999999</c:v>
+                </c:pt>
+                <c:pt idx="86" formatCode="General">
+                  <c:v>11.0917473</c:v>
+                </c:pt>
+                <c:pt idx="87" formatCode="General">
+                  <c:v>12.022646</c:v>
+                </c:pt>
+                <c:pt idx="88" formatCode="General">
+                  <c:v>13.0316677</c:v>
+                </c:pt>
+                <c:pt idx="89" formatCode="General">
+                  <c:v>14.125374799999999</c:v>
+                </c:pt>
+                <c:pt idx="90" formatCode="General">
+                  <c:v>15.310876800000001</c:v>
+                </c:pt>
+                <c:pt idx="91" formatCode="General">
+                  <c:v>16.595870999999999</c:v>
+                </c:pt>
+                <c:pt idx="92" formatCode="General">
+                  <c:v>17.988708500000001</c:v>
+                </c:pt>
+                <c:pt idx="93" formatCode="General">
+                  <c:v>19.498443600000002</c:v>
+                </c:pt>
+                <c:pt idx="94" formatCode="General">
+                  <c:v>21.134893399999999</c:v>
+                </c:pt>
+                <c:pt idx="95" formatCode="General">
+                  <c:v>22.908678099999999</c:v>
+                </c:pt>
+                <c:pt idx="96" formatCode="General">
+                  <c:v>24.8313293</c:v>
+                </c:pt>
+                <c:pt idx="97" formatCode="General">
+                  <c:v>26.915351900000001</c:v>
+                </c:pt>
+                <c:pt idx="98" formatCode="General">
+                  <c:v>29.174272500000001</c:v>
+                </c:pt>
+                <c:pt idx="99" formatCode="General">
+                  <c:v>31.622776000000002</c:v>
+                </c:pt>
+                <c:pt idx="100" formatCode="General">
+                  <c:v>34.276775399999998</c:v>
+                </c:pt>
+                <c:pt idx="101" formatCode="General">
+                  <c:v>37.153526300000003</c:v>
+                </c:pt>
+                <c:pt idx="102" formatCode="General">
+                  <c:v>40.271705599999997</c:v>
+                </c:pt>
+                <c:pt idx="103" formatCode="General">
+                  <c:v>43.651580799999998</c:v>
+                </c:pt>
+                <c:pt idx="104" formatCode="General">
+                  <c:v>47.3151321</c:v>
+                </c:pt>
+                <c:pt idx="105" formatCode="General">
+                  <c:v>51.286144299999997</c:v>
+                </c:pt>
+                <c:pt idx="106" formatCode="General">
+                  <c:v>55.590427400000003</c:v>
+                </c:pt>
+                <c:pt idx="107" formatCode="General">
+                  <c:v>60.255954699999997</c:v>
+                </c:pt>
+                <c:pt idx="108" formatCode="General">
+                  <c:v>65.313064600000004</c:v>
+                </c:pt>
+                <c:pt idx="109" formatCode="General">
+                  <c:v>70.794578599999994</c:v>
+                </c:pt>
+                <c:pt idx="110" formatCode="General">
+                  <c:v>76.736144999999993</c:v>
+                </c:pt>
+                <c:pt idx="111" formatCode="General">
+                  <c:v>83.176391600000002</c:v>
+                </c:pt>
+                <c:pt idx="112" formatCode="General">
+                  <c:v>90.157119800000004</c:v>
+                </c:pt>
+                <c:pt idx="113" formatCode="General">
+                  <c:v>97.723724399999995</c:v>
+                </c:pt>
+                <c:pt idx="114" formatCode="General">
+                  <c:v>105.925392</c:v>
+                </c:pt>
+                <c:pt idx="115" formatCode="General">
+                  <c:v>114.81534600000001</c:v>
+                </c:pt>
+                <c:pt idx="116" formatCode="General">
+                  <c:v>124.451469</c:v>
+                </c:pt>
+                <c:pt idx="117" formatCode="General">
+                  <c:v>134.89631700000001</c:v>
+                </c:pt>
+                <c:pt idx="118" formatCode="General">
+                  <c:v>146.21769699999999</c:v>
+                </c:pt>
+                <c:pt idx="119" formatCode="General">
+                  <c:v>158.48933400000001</c:v>
+                </c:pt>
+                <c:pt idx="120" formatCode="General">
+                  <c:v>171.79089400000001</c:v>
+                </c:pt>
+                <c:pt idx="121" formatCode="General">
+                  <c:v>186.20871</c:v>
+                </c:pt>
+                <c:pt idx="122" formatCode="General">
+                  <c:v>201.83667</c:v>
+                </c:pt>
+                <c:pt idx="123" formatCode="General">
+                  <c:v>218.77612300000001</c:v>
+                </c:pt>
+                <c:pt idx="124" formatCode="General">
+                  <c:v>237.13737499999999</c:v>
+                </c:pt>
+                <c:pt idx="125" formatCode="General">
+                  <c:v>257.03964200000001</c:v>
+                </c:pt>
+                <c:pt idx="126" formatCode="General">
+                  <c:v>278.61206099999998</c:v>
+                </c:pt>
+                <c:pt idx="127" formatCode="General">
+                  <c:v>301.99517800000001</c:v>
+                </c:pt>
+                <c:pt idx="128" formatCode="General">
+                  <c:v>327.34075899999999</c:v>
+                </c:pt>
+                <c:pt idx="129" formatCode="General">
+                  <c:v>354.813354</c:v>
+                </c:pt>
+                <c:pt idx="130" formatCode="General">
+                  <c:v>384.59182700000002</c:v>
+                </c:pt>
+                <c:pt idx="131" formatCode="General">
+                  <c:v>416.869507</c:v>
+                </c:pt>
+                <c:pt idx="132" formatCode="General">
+                  <c:v>451.85592700000001</c:v>
+                </c:pt>
+                <c:pt idx="133" formatCode="General">
+                  <c:v>489.77886999999998</c:v>
+                </c:pt>
+                <c:pt idx="134" formatCode="General">
+                  <c:v>530.88433799999996</c:v>
+                </c:pt>
+                <c:pt idx="135" formatCode="General">
+                  <c:v>575.43994099999998</c:v>
+                </c:pt>
+                <c:pt idx="136" formatCode="General">
+                  <c:v>623.73492399999998</c:v>
+                </c:pt>
+                <c:pt idx="137" formatCode="General">
+                  <c:v>676.08288600000003</c:v>
+                </c:pt>
+                <c:pt idx="138" formatCode="General">
+                  <c:v>732.824524</c:v>
+                </c:pt>
+                <c:pt idx="139" formatCode="General">
+                  <c:v>794.32843000000003</c:v>
+                </c:pt>
+                <c:pt idx="140" formatCode="General">
+                  <c:v>860.993652</c:v>
+                </c:pt>
+                <c:pt idx="141" formatCode="General">
+                  <c:v>933.25433299999997</c:v>
+                </c:pt>
+                <c:pt idx="142" formatCode="General">
+                  <c:v>1011.57971</c:v>
+                </c:pt>
+                <c:pt idx="143" formatCode="General">
+                  <c:v>1096.4781499999999</c:v>
+                </c:pt>
+                <c:pt idx="144" formatCode="General">
+                  <c:v>1188.5023200000001</c:v>
+                </c:pt>
+                <c:pt idx="145" formatCode="General">
+                  <c:v>1288.25</c:v>
+                </c:pt>
+                <c:pt idx="146" formatCode="General">
+                  <c:v>1396.3682899999999</c:v>
+                </c:pt>
+                <c:pt idx="147" formatCode="General">
+                  <c:v>1513.56152</c:v>
+                </c:pt>
+                <c:pt idx="148" formatCode="General">
+                  <c:v>1640.5894800000001</c:v>
+                </c:pt>
+                <c:pt idx="149" formatCode="General">
+                  <c:v>1778.2794200000001</c:v>
+                </c:pt>
+                <c:pt idx="150" formatCode="General">
+                  <c:v>1927.5252700000001</c:v>
+                </c:pt>
+                <c:pt idx="151" formatCode="General">
+                  <c:v>2089.2959000000001</c:v>
+                </c:pt>
+                <c:pt idx="152" formatCode="General">
+                  <c:v>2264.6442900000002</c:v>
+                </c:pt>
+                <c:pt idx="153" formatCode="General">
+                  <c:v>2454.7094699999998</c:v>
+                </c:pt>
+                <c:pt idx="154" formatCode="General">
+                  <c:v>2660.7248500000001</c:v>
+                </c:pt>
+                <c:pt idx="155" formatCode="General">
+                  <c:v>2884.0317399999999</c:v>
+                </c:pt>
+                <c:pt idx="156" formatCode="General">
+                  <c:v>3126.08032</c:v>
+                </c:pt>
+                <c:pt idx="157" formatCode="General">
+                  <c:v>3388.4414099999999</c:v>
+                </c:pt>
+                <c:pt idx="158" formatCode="General">
+                  <c:v>3672.8234900000002</c:v>
+                </c:pt>
+                <c:pt idx="159" formatCode="General">
+                  <c:v>3981.0708</c:v>
+                </c:pt>
+                <c:pt idx="160" formatCode="General">
+                  <c:v>4315.1904299999997</c:v>
+                </c:pt>
+                <c:pt idx="161" formatCode="General">
+                  <c:v>4677.3520500000004</c:v>
+                </c:pt>
+                <c:pt idx="162" formatCode="General">
+                  <c:v>5069.90625</c:v>
+                </c:pt>
+                <c:pt idx="163" formatCode="General">
+                  <c:v>5495.4086900000002</c:v>
+                </c:pt>
+                <c:pt idx="164" formatCode="General">
+                  <c:v>5956.6225599999998</c:v>
+                </c:pt>
+                <c:pt idx="165" formatCode="General">
+                  <c:v>6456.5415000000003</c:v>
+                </c:pt>
+                <c:pt idx="166" formatCode="General">
+                  <c:v>6998.4204099999997</c:v>
+                </c:pt>
+                <c:pt idx="167" formatCode="General">
+                  <c:v>7585.77783</c:v>
+                </c:pt>
+                <c:pt idx="168" formatCode="General">
+                  <c:v>8222.4257799999996</c:v>
+                </c:pt>
+                <c:pt idx="169" formatCode="General">
+                  <c:v>8912.5107399999997</c:v>
+                </c:pt>
+                <c:pt idx="170" formatCode="General">
+                  <c:v>9660.5117200000004</c:v>
+                </c:pt>
+                <c:pt idx="171" formatCode="General">
+                  <c:v>10471.2852</c:v>
+                </c:pt>
+                <c:pt idx="172" formatCode="General">
+                  <c:v>11350.103499999999</c:v>
+                </c:pt>
+                <c:pt idx="173" formatCode="General">
+                  <c:v>12302.6924</c:v>
+                </c:pt>
+                <c:pt idx="174" formatCode="General">
+                  <c:v>13335.213900000001</c:v>
+                </c:pt>
+                <c:pt idx="175" formatCode="General">
+                  <c:v>14454.392599999999</c:v>
+                </c:pt>
+                <c:pt idx="176" formatCode="General">
+                  <c:v>15667.516600000001</c:v>
+                </c:pt>
+                <c:pt idx="177" formatCode="General">
+                  <c:v>16982.4375</c:v>
+                </c:pt>
+                <c:pt idx="178" formatCode="General">
+                  <c:v>18407.714800000002</c:v>
+                </c:pt>
+                <c:pt idx="179" formatCode="General">
+                  <c:v>19952.632799999999</c:v>
+                </c:pt>
+                <c:pt idx="180" formatCode="General">
+                  <c:v>21627.1875</c:v>
+                </c:pt>
+                <c:pt idx="181" formatCode="General">
+                  <c:v>23442.281200000001</c:v>
+                </c:pt>
+                <c:pt idx="182" formatCode="General">
+                  <c:v>25409.7402</c:v>
+                </c:pt>
+                <c:pt idx="183" formatCode="General">
+                  <c:v>27542.291000000001</c:v>
+                </c:pt>
+                <c:pt idx="184" formatCode="General">
+                  <c:v>29853.820299999999</c:v>
+                </c:pt>
+                <c:pt idx="185" formatCode="General">
+                  <c:v>32359.382799999999</c:v>
+                </c:pt>
+                <c:pt idx="186" formatCode="General">
+                  <c:v>35075.195299999999</c:v>
+                </c:pt>
+                <c:pt idx="187" formatCode="General">
+                  <c:v>38018.933599999997</c:v>
+                </c:pt>
+                <c:pt idx="188" formatCode="General">
+                  <c:v>41209.777300000002</c:v>
+                </c:pt>
+                <c:pt idx="189" formatCode="General">
+                  <c:v>44668.367200000001</c:v>
+                </c:pt>
+                <c:pt idx="190" formatCode="General">
+                  <c:v>48417.230499999998</c:v>
+                </c:pt>
+                <c:pt idx="191" formatCode="General">
+                  <c:v>52480.777300000002</c:v>
+                </c:pt>
+                <c:pt idx="192" formatCode="General">
+                  <c:v>56885.308599999997</c:v>
+                </c:pt>
+                <c:pt idx="193" formatCode="General">
+                  <c:v>61659.496099999997</c:v>
+                </c:pt>
+                <c:pt idx="194" formatCode="General">
+                  <c:v>66834.359400000001</c:v>
+                </c:pt>
+                <c:pt idx="195" formatCode="General">
+                  <c:v>72443.617199999993</c:v>
+                </c:pt>
+                <c:pt idx="196" formatCode="General">
+                  <c:v>78523.5625</c:v>
+                </c:pt>
+                <c:pt idx="197" formatCode="General">
+                  <c:v>85113.773400000005</c:v>
+                </c:pt>
+                <c:pt idx="198" formatCode="General">
+                  <c:v>92257.171900000001</c:v>
+                </c:pt>
+                <c:pt idx="199" formatCode="General">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'019-24A-Tscan_0_2mean-b_MR (2)'!$R$22:$R$221</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="200"/>
+                <c:pt idx="0">
+                  <c:v>5.8357752899999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.3255548499999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.8564377699999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.4318766600000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.0556087200000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.73169154E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.4645142599999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="General">
+                  <c:v>0.1025884</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="General">
+                  <c:v>0.111198328</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="General">
+                  <c:v>0.120530814</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="General">
+                  <c:v>0.130646557</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="General">
+                  <c:v>0.141611248</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="General">
+                  <c:v>0.153496206</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="General">
+                  <c:v>0.16637860199999999</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="General">
+                  <c:v>0.18034215300000001</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="General">
+                  <c:v>0.195477545</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="General">
+                  <c:v>0.211883232</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="General">
+                  <c:v>0.22966574100000001</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="General">
+                  <c:v>0.24894060200000001</c:v>
+                </c:pt>
+                <c:pt idx="19" formatCode="General">
+                  <c:v>0.26983317699999998</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="General">
+                  <c:v>0.29247900799999998</c:v>
+                </c:pt>
+                <c:pt idx="21" formatCode="General">
+                  <c:v>0.31702530400000001</c:v>
+                </c:pt>
+                <c:pt idx="22" formatCode="General">
+                  <c:v>0.343631566</c:v>
+                </c:pt>
+                <c:pt idx="23" formatCode="General">
+                  <c:v>0.372470737</c:v>
+                </c:pt>
+                <c:pt idx="24" formatCode="General">
+                  <c:v>0.40372994499999998</c:v>
+                </c:pt>
+                <c:pt idx="25" formatCode="General">
+                  <c:v>0.43761235500000001</c:v>
+                </c:pt>
+                <c:pt idx="26" formatCode="General">
+                  <c:v>0.47433814400000002</c:v>
+                </c:pt>
+                <c:pt idx="27" formatCode="General">
+                  <c:v>0.51414555299999998</c:v>
+                </c:pt>
+                <c:pt idx="28" formatCode="General">
+                  <c:v>0.55729341499999996</c:v>
+                </c:pt>
+                <c:pt idx="29" formatCode="General">
+                  <c:v>0.60406172300000005</c:v>
+                </c:pt>
+                <c:pt idx="30" formatCode="General">
+                  <c:v>0.65475410199999995</c:v>
+                </c:pt>
+                <c:pt idx="31" formatCode="General">
+                  <c:v>0.70969968999999999</c:v>
+                </c:pt>
+                <c:pt idx="32" formatCode="General">
+                  <c:v>0.76925522099999999</c:v>
+                </c:pt>
+                <c:pt idx="33" formatCode="General">
+                  <c:v>0.83380681300000004</c:v>
+                </c:pt>
+                <c:pt idx="34" formatCode="General">
+                  <c:v>0.90377372499999997</c:v>
+                </c:pt>
+                <c:pt idx="35" formatCode="General">
+                  <c:v>0.97960913199999999</c:v>
+                </c:pt>
+                <c:pt idx="36" formatCode="General">
+                  <c:v>1.06180501</c:v>
+                </c:pt>
+                <c:pt idx="37" formatCode="General">
+                  <c:v>1.1508939300000001</c:v>
+                </c:pt>
+                <c:pt idx="38" formatCode="General">
+                  <c:v>1.24745321</c:v>
+                </c:pt>
+                <c:pt idx="39" formatCode="General">
+                  <c:v>1.3521080000000001</c:v>
+                </c:pt>
+                <c:pt idx="40" formatCode="General">
+                  <c:v>1.46553552</c:v>
+                </c:pt>
+                <c:pt idx="41" formatCode="General">
+                  <c:v>1.58846939</c:v>
+                </c:pt>
+                <c:pt idx="42" formatCode="General">
+                  <c:v>1.72170329</c:v>
+                </c:pt>
+                <c:pt idx="43" formatCode="General">
+                  <c:v>1.8660954199999999</c:v>
+                </c:pt>
+                <c:pt idx="44" formatCode="General">
+                  <c:v>2.0225725200000002</c:v>
+                </c:pt>
+                <c:pt idx="45" formatCode="General">
+                  <c:v>2.19215274</c:v>
+                </c:pt>
+                <c:pt idx="46" formatCode="General">
+                  <c:v>2.37591624</c:v>
+                </c:pt>
+                <c:pt idx="47" formatCode="General">
+                  <c:v>2.5750420100000002</c:v>
+                </c:pt>
+                <c:pt idx="48" formatCode="General">
+                  <c:v>2.7908027199999998</c:v>
+                </c:pt>
+                <c:pt idx="49" formatCode="General">
+                  <c:v>3.0245754699999998</c:v>
+                </c:pt>
+                <c:pt idx="50" formatCode="General">
+                  <c:v>3.2778470500000001</c:v>
+                </c:pt>
+                <c:pt idx="51" formatCode="General">
+                  <c:v>3.5522167699999998</c:v>
+                </c:pt>
+                <c:pt idx="52" formatCode="General">
+                  <c:v>3.84941435</c:v>
+                </c:pt>
+                <c:pt idx="53" formatCode="General">
+                  <c:v>4.1713008900000004</c:v>
+                </c:pt>
+                <c:pt idx="54" formatCode="General">
+                  <c:v>4.5198783899999997</c:v>
+                </c:pt>
+                <c:pt idx="55" formatCode="General">
+                  <c:v>4.8973026300000004</c:v>
+                </c:pt>
+                <c:pt idx="56" formatCode="General">
+                  <c:v>5.3058781599999998</c:v>
+                </c:pt>
+                <c:pt idx="57" formatCode="General">
+                  <c:v>5.7480831099999996</c:v>
+                </c:pt>
+                <c:pt idx="58" formatCode="General">
+                  <c:v>6.2265539199999997</c:v>
+                </c:pt>
+                <c:pt idx="59" formatCode="General">
+                  <c:v>6.7441105800000001</c:v>
+                </c:pt>
+                <c:pt idx="60" formatCode="General">
+                  <c:v>7.3037419300000002</c:v>
+                </c:pt>
+                <c:pt idx="61" formatCode="General">
+                  <c:v>7.9086108199999998</c:v>
+                </c:pt>
+                <c:pt idx="62" formatCode="General">
+                  <c:v>8.5620517700000001</c:v>
+                </c:pt>
+                <c:pt idx="63" formatCode="General">
+                  <c:v>9.2675485599999998</c:v>
+                </c:pt>
+                <c:pt idx="64" formatCode="General">
+                  <c:v>10.0287323</c:v>
+                </c:pt>
+                <c:pt idx="65" formatCode="General">
+                  <c:v>10.8493376</c:v>
+                </c:pt>
+                <c:pt idx="66" formatCode="General">
+                  <c:v>11.7331734</c:v>
+                </c:pt>
+                <c:pt idx="67" formatCode="General">
+                  <c:v>12.684058200000001</c:v>
+                </c:pt>
+                <c:pt idx="68" formatCode="General">
+                  <c:v>13.70576</c:v>
+                </c:pt>
+                <c:pt idx="69" formatCode="General">
+                  <c:v>14.8019018</c:v>
+                </c:pt>
+                <c:pt idx="70" formatCode="General">
+                  <c:v>15.9758377</c:v>
+                </c:pt>
+                <c:pt idx="71" formatCode="General">
+                  <c:v>17.2304821</c:v>
+                </c:pt>
+                <c:pt idx="72" formatCode="General">
+                  <c:v>18.568162900000001</c:v>
+                </c:pt>
+                <c:pt idx="73" formatCode="General">
+                  <c:v>19.990366000000002</c:v>
+                </c:pt>
+                <c:pt idx="74" formatCode="General">
+                  <c:v>21.497533799999999</c:v>
+                </c:pt>
+                <c:pt idx="75" formatCode="General">
+                  <c:v>23.088602099999999</c:v>
+                </c:pt>
+                <c:pt idx="76" formatCode="General">
+                  <c:v>24.7608833</c:v>
+                </c:pt>
+                <c:pt idx="77" formatCode="General">
+                  <c:v>26.509508100000001</c:v>
+                </c:pt>
+                <c:pt idx="78" formatCode="General">
+                  <c:v>28.327096900000001</c:v>
+                </c:pt>
+                <c:pt idx="79" formatCode="General">
+                  <c:v>30.2034798</c:v>
+                </c:pt>
+                <c:pt idx="80" formatCode="General">
+                  <c:v>32.125217399999997</c:v>
+                </c:pt>
+                <c:pt idx="81" formatCode="General">
+                  <c:v>34.075557699999997</c:v>
+                </c:pt>
+                <c:pt idx="82" formatCode="General">
+                  <c:v>36.034130099999999</c:v>
+                </c:pt>
+                <c:pt idx="83" formatCode="General">
+                  <c:v>37.977359800000002</c:v>
+                </c:pt>
+                <c:pt idx="84" formatCode="General">
+                  <c:v>39.878711699999997</c:v>
+                </c:pt>
+                <c:pt idx="85" formatCode="General">
+                  <c:v>41.709468800000003</c:v>
+                </c:pt>
+                <c:pt idx="86" formatCode="General">
+                  <c:v>43.439712499999999</c:v>
+                </c:pt>
+                <c:pt idx="87" formatCode="General">
+                  <c:v>45.039817800000002</c:v>
+                </c:pt>
+                <c:pt idx="88" formatCode="General">
+                  <c:v>46.481918299999997</c:v>
+                </c:pt>
+                <c:pt idx="89" formatCode="General">
+                  <c:v>47.741695399999998</c:v>
+                </c:pt>
+                <c:pt idx="90" formatCode="General">
+                  <c:v>48.799831400000002</c:v>
+                </c:pt>
+                <c:pt idx="91" formatCode="General">
+                  <c:v>49.643375399999996</c:v>
+                </c:pt>
+                <c:pt idx="92" formatCode="General">
+                  <c:v>50.266731299999996</c:v>
+                </c:pt>
+                <c:pt idx="93" formatCode="General">
+                  <c:v>50.6717224</c:v>
+                </c:pt>
+                <c:pt idx="94" formatCode="General">
+                  <c:v>50.867637600000002</c:v>
+                </c:pt>
+                <c:pt idx="95" formatCode="General">
+                  <c:v>50.869941699999998</c:v>
+                </c:pt>
+                <c:pt idx="96" formatCode="General">
+                  <c:v>50.699409500000002</c:v>
+                </c:pt>
+                <c:pt idx="97" formatCode="General">
+                  <c:v>50.380252800000001</c:v>
+                </c:pt>
+                <c:pt idx="98" formatCode="General">
+                  <c:v>49.938594799999997</c:v>
+                </c:pt>
+                <c:pt idx="99" formatCode="General">
+                  <c:v>49.400917100000001</c:v>
+                </c:pt>
+                <c:pt idx="100" formatCode="General">
+                  <c:v>48.792743700000003</c:v>
+                </c:pt>
+                <c:pt idx="101" formatCode="General">
+                  <c:v>48.137550400000002</c:v>
+                </c:pt>
+                <c:pt idx="102" formatCode="General">
+                  <c:v>47.4560928</c:v>
+                </c:pt>
+                <c:pt idx="103" formatCode="General">
+                  <c:v>46.765808100000001</c:v>
+                </c:pt>
+                <c:pt idx="104" formatCode="General">
+                  <c:v>46.080833400000003</c:v>
+                </c:pt>
+                <c:pt idx="105" formatCode="General">
+                  <c:v>45.411739300000001</c:v>
+                </c:pt>
+                <c:pt idx="106" formatCode="General">
+                  <c:v>44.765788999999998</c:v>
+                </c:pt>
+                <c:pt idx="107" formatCode="General">
+                  <c:v>44.147121400000003</c:v>
+                </c:pt>
+                <c:pt idx="108" formatCode="General">
+                  <c:v>43.557033500000003</c:v>
+                </c:pt>
+                <c:pt idx="109" formatCode="General">
+                  <c:v>42.994598400000001</c:v>
+                </c:pt>
+                <c:pt idx="110" formatCode="General">
+                  <c:v>42.456920599999997</c:v>
+                </c:pt>
+                <c:pt idx="111" formatCode="General">
+                  <c:v>41.939910900000001</c:v>
+                </c:pt>
+                <c:pt idx="112" formatCode="General">
+                  <c:v>41.438716900000003</c:v>
+                </c:pt>
+                <c:pt idx="113" formatCode="General">
+                  <c:v>40.948181200000001</c:v>
+                </c:pt>
+                <c:pt idx="114" formatCode="General">
+                  <c:v>40.463508599999997</c:v>
+                </c:pt>
+                <c:pt idx="115" formatCode="General">
+                  <c:v>39.980495500000004</c:v>
+                </c:pt>
+                <c:pt idx="116" formatCode="General">
+                  <c:v>39.495960199999999</c:v>
+                </c:pt>
+                <c:pt idx="117" formatCode="General">
+                  <c:v>39.007984200000003</c:v>
+                </c:pt>
+                <c:pt idx="118" formatCode="General">
+                  <c:v>38.515785200000003</c:v>
+                </c:pt>
+                <c:pt idx="119" formatCode="General">
+                  <c:v>38.020023299999998</c:v>
+                </c:pt>
+                <c:pt idx="120" formatCode="General">
+                  <c:v>37.522399900000003</c:v>
+                </c:pt>
+                <c:pt idx="121" formatCode="General">
+                  <c:v>37.025707199999999</c:v>
+                </c:pt>
+                <c:pt idx="122" formatCode="General">
+                  <c:v>36.533416699999997</c:v>
+                </c:pt>
+                <c:pt idx="123" formatCode="General">
+                  <c:v>36.049545299999998</c:v>
+                </c:pt>
+                <c:pt idx="124" formatCode="General">
+                  <c:v>35.578357699999998</c:v>
+                </c:pt>
+                <c:pt idx="125" formatCode="General">
+                  <c:v>35.124217999999999</c:v>
+                </c:pt>
+                <c:pt idx="126" formatCode="General">
+                  <c:v>34.691383399999999</c:v>
+                </c:pt>
+                <c:pt idx="127" formatCode="General">
+                  <c:v>34.284061399999999</c:v>
+                </c:pt>
+                <c:pt idx="128" formatCode="General">
+                  <c:v>33.906330099999998</c:v>
+                </c:pt>
+                <c:pt idx="129" formatCode="General">
+                  <c:v>33.562213900000003</c:v>
+                </c:pt>
+                <c:pt idx="130" formatCode="General">
+                  <c:v>33.255680099999999</c:v>
+                </c:pt>
+                <c:pt idx="131" formatCode="General">
+                  <c:v>32.9906845</c:v>
+                </c:pt>
+                <c:pt idx="132" formatCode="General">
+                  <c:v>32.771221199999999</c:v>
+                </c:pt>
+                <c:pt idx="133" formatCode="General">
+                  <c:v>32.601062800000001</c:v>
+                </c:pt>
+                <c:pt idx="134" formatCode="General">
+                  <c:v>32.483856199999998</c:v>
+                </c:pt>
+                <c:pt idx="135" formatCode="General">
+                  <c:v>32.422885899999997</c:v>
+                </c:pt>
+                <c:pt idx="136" formatCode="General">
+                  <c:v>32.4209976</c:v>
+                </c:pt>
+                <c:pt idx="137" formatCode="General">
+                  <c:v>32.4805183</c:v>
+                </c:pt>
+                <c:pt idx="138" formatCode="General">
+                  <c:v>32.603469799999999</c:v>
+                </c:pt>
+                <c:pt idx="139" formatCode="General">
+                  <c:v>32.791320800000001</c:v>
+                </c:pt>
+                <c:pt idx="140" formatCode="General">
+                  <c:v>33.0453033</c:v>
+                </c:pt>
+                <c:pt idx="141" formatCode="General">
+                  <c:v>33.366451300000001</c:v>
+                </c:pt>
+                <c:pt idx="142" formatCode="General">
+                  <c:v>33.755767800000001</c:v>
+                </c:pt>
+                <c:pt idx="143" formatCode="General">
+                  <c:v>34.214271500000002</c:v>
+                </c:pt>
+                <c:pt idx="144" formatCode="General">
+                  <c:v>34.7430077</c:v>
+                </c:pt>
+                <c:pt idx="145" formatCode="General">
+                  <c:v>35.3430252</c:v>
+                </c:pt>
+                <c:pt idx="146" formatCode="General">
+                  <c:v>36.015350300000001</c:v>
+                </c:pt>
+                <c:pt idx="147" formatCode="General">
+                  <c:v>36.760635399999998</c:v>
+                </c:pt>
+                <c:pt idx="148" formatCode="General">
+                  <c:v>37.579284700000002</c:v>
+                </c:pt>
+                <c:pt idx="149" formatCode="General">
+                  <c:v>38.471206700000003</c:v>
+                </c:pt>
+                <c:pt idx="150" formatCode="General">
+                  <c:v>39.435600299999997</c:v>
+                </c:pt>
+                <c:pt idx="151" formatCode="General">
+                  <c:v>40.4713821</c:v>
+                </c:pt>
+                <c:pt idx="152" formatCode="General">
+                  <c:v>41.576984400000001</c:v>
+                </c:pt>
+                <c:pt idx="153" formatCode="General">
+                  <c:v>42.750888799999998</c:v>
+                </c:pt>
+                <c:pt idx="154" formatCode="General">
+                  <c:v>43.991836499999998</c:v>
+                </c:pt>
+                <c:pt idx="155" formatCode="General">
+                  <c:v>45.299499500000003</c:v>
+                </c:pt>
+                <c:pt idx="156" formatCode="General">
+                  <c:v>46.674823799999999</c:v>
+                </c:pt>
+                <c:pt idx="157" formatCode="General">
+                  <c:v>48.120521500000002</c:v>
+                </c:pt>
+                <c:pt idx="158" formatCode="General">
+                  <c:v>49.641399399999997</c:v>
+                </c:pt>
+                <c:pt idx="159" formatCode="General">
+                  <c:v>51.244640400000002</c:v>
+                </c:pt>
+                <c:pt idx="160" formatCode="General">
+                  <c:v>52.939765899999998</c:v>
+                </c:pt>
+                <c:pt idx="161" formatCode="General">
+                  <c:v>54.738716099999998</c:v>
+                </c:pt>
+                <c:pt idx="162" formatCode="General">
+                  <c:v>56.655296300000003</c:v>
+                </c:pt>
+                <c:pt idx="163" formatCode="General">
+                  <c:v>58.705223099999998</c:v>
+                </c:pt>
+                <c:pt idx="164" formatCode="General">
+                  <c:v>60.905597700000001</c:v>
+                </c:pt>
+                <c:pt idx="165" formatCode="General">
+                  <c:v>63.274421699999998</c:v>
+                </c:pt>
+                <c:pt idx="166" formatCode="General">
+                  <c:v>65.830627399999997</c:v>
+                </c:pt>
+                <c:pt idx="167" formatCode="General">
+                  <c:v>68.593612699999994</c:v>
+                </c:pt>
+                <c:pt idx="168" formatCode="General">
+                  <c:v>71.5829849</c:v>
+                </c:pt>
+                <c:pt idx="169" formatCode="General">
+                  <c:v>74.818893399999993</c:v>
+                </c:pt>
+                <c:pt idx="170" formatCode="General">
+                  <c:v>78.321441699999994</c:v>
+                </c:pt>
+                <c:pt idx="171" formatCode="General">
+                  <c:v>82.110961900000007</c:v>
+                </c:pt>
+                <c:pt idx="172" formatCode="General">
+                  <c:v>86.208335899999994</c:v>
+                </c:pt>
+                <c:pt idx="173" formatCode="General">
+                  <c:v>90.634658799999997</c:v>
+                </c:pt>
+                <c:pt idx="174" formatCode="General">
+                  <c:v>95.411140399999994</c:v>
+                </c:pt>
+                <c:pt idx="175" formatCode="General">
+                  <c:v>100.56001999999999</c:v>
+                </c:pt>
+                <c:pt idx="176" formatCode="General">
+                  <c:v>106.103737</c:v>
+                </c:pt>
+                <c:pt idx="177" formatCode="General">
+                  <c:v>112.06545300000001</c:v>
+                </c:pt>
+                <c:pt idx="178" formatCode="General">
+                  <c:v>118.469002</c:v>
+                </c:pt>
+                <c:pt idx="179" formatCode="General">
+                  <c:v>125.33942399999999</c:v>
+                </c:pt>
+                <c:pt idx="180" formatCode="General">
+                  <c:v>132.70193499999999</c:v>
+                </c:pt>
+                <c:pt idx="181" formatCode="General">
+                  <c:v>140.583191</c:v>
+                </c:pt>
+                <c:pt idx="182" formatCode="General">
+                  <c:v>149.01087999999999</c:v>
+                </c:pt>
+                <c:pt idx="183" formatCode="General">
+                  <c:v>158.01370199999999</c:v>
+                </c:pt>
+                <c:pt idx="184" formatCode="General">
+                  <c:v>167.62148999999999</c:v>
+                </c:pt>
+                <c:pt idx="185" formatCode="General">
+                  <c:v>177.86610400000001</c:v>
+                </c:pt>
+                <c:pt idx="186" formatCode="General">
+                  <c:v>188.780869</c:v>
+                </c:pt>
+                <c:pt idx="187" formatCode="General">
+                  <c:v>200.40141299999999</c:v>
+                </c:pt>
+                <c:pt idx="188" formatCode="General">
+                  <c:v>212.76625100000001</c:v>
+                </c:pt>
+                <c:pt idx="189" formatCode="General">
+                  <c:v>225.91656499999999</c:v>
+                </c:pt>
+                <c:pt idx="190" formatCode="General">
+                  <c:v>239.897873</c:v>
+                </c:pt>
+                <c:pt idx="191" formatCode="General">
+                  <c:v>254.760345</c:v>
+                </c:pt>
+                <c:pt idx="192" formatCode="General">
+                  <c:v>270.55862400000001</c:v>
+                </c:pt>
+                <c:pt idx="193" formatCode="General">
+                  <c:v>287.353363</c:v>
+                </c:pt>
+                <c:pt idx="194" formatCode="General">
+                  <c:v>305.21264600000001</c:v>
+                </c:pt>
+                <c:pt idx="195" formatCode="General">
+                  <c:v>324.20953400000002</c:v>
+                </c:pt>
+                <c:pt idx="196" formatCode="General">
+                  <c:v>344.42636099999999</c:v>
+                </c:pt>
+                <c:pt idx="197" formatCode="General">
+                  <c:v>365.95166</c:v>
+                </c:pt>
+                <c:pt idx="198" formatCode="General">
+                  <c:v>388.88253800000001</c:v>
+                </c:pt>
+                <c:pt idx="199" formatCode="General">
+                  <c:v>413.32342499999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000B-D472-40B5-AD83-DF3373B7CA3A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="476982568"/>
+        <c:axId val="476983224"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="476982568"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.E+00" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="476983224"/>
+        <c:crossesAt val="1.0000000000000004E-5"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="476983224"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.E+00" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="476982568"/>
+        <c:crossesAt val="1.0000000000000002E-2"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -4240,6 +9503,42 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B7911E6-819D-45C8-ADC7-46DD3A2D65E1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4539,7 +9838,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L152"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -9682,26 +14981,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N152"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:R221"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22:G152"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="T9" sqref="T9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>43375.720682870371</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -9709,7 +15008,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -9717,105 +15016,174 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6">
         <v>120</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="P6" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q6">
+        <v>19</v>
+      </c>
+      <c r="R6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
       <c r="B7">
         <v>60</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="P7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
       <c r="B8">
         <v>685</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="P8" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q8">
+        <v>0.98407548700000003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
       <c r="B9">
         <v>40</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="P9" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>9.9999999700000005E-7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
       <c r="B10">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="P10" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q10">
+        <v>0.10854812</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="P11" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q11">
+        <v>0.10681954</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>12</v>
       </c>
       <c r="B12" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="P12" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>1.44119326E-6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>14</v>
       </c>
       <c r="B13">
         <v>1.3280000000000001</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="P13" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q13">
+        <v>213.069107</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>15</v>
       </c>
       <c r="B14">
         <v>465</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="P14" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q14" s="2">
+        <v>8.9212910799999998E-8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>16</v>
       </c>
       <c r="B15">
         <v>173.2</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="P15" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q15" s="2">
+        <v>5.0113015999999999E-8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>17</v>
       </c>
       <c r="B16">
         <v>1008.21</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P16" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q16" s="2">
+        <v>4.9999999699999998E-9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="M18" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="M19">
         <v>5.5E-2</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P19" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -9858,8 +15226,17 @@
       <c r="N20" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P20" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>23</v>
+      </c>
+      <c r="R20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>4.0125000000000001E-6</v>
       </c>
@@ -9904,8 +15281,17 @@
         <f>SQRT(M22^2+G22^2)</f>
         <v>2.6495804654606094</v>
       </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P22" s="2">
+        <v>1.08392686E-2</v>
+      </c>
+      <c r="Q22" s="2">
+        <v>3.4477699999999997E-5</v>
+      </c>
+      <c r="R22" s="2">
+        <v>5.8357752899999997E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>4.4124999999999997E-6</v>
       </c>
@@ -9950,8 +15336,17 @@
         <f t="shared" ref="N23:N46" si="1">SQRT(M23^2+G23^2)</f>
         <v>2.953338235920854</v>
       </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P23" s="2">
+        <v>1.1748977000000001E-2</v>
+      </c>
+      <c r="Q23" s="2">
+        <v>4.05078026E-5</v>
+      </c>
+      <c r="R23" s="2">
+        <v>6.3255548499999995E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>4.8125000000000001E-6</v>
       </c>
@@ -9996,8 +15391,17 @@
         <f t="shared" si="1"/>
         <v>3.3000493577123744</v>
       </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P24" s="2">
+        <v>1.2735031500000001E-2</v>
+      </c>
+      <c r="Q24" s="2">
+        <v>4.7592519000000001E-5</v>
+      </c>
+      <c r="R24" s="2">
+        <v>6.8564377699999998E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>5.2124999999999996E-6</v>
       </c>
@@ -10042,8 +15446,17 @@
         <f t="shared" si="1"/>
         <v>3.6952002820047065</v>
       </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P25" s="2">
+        <v>1.38038425E-2</v>
+      </c>
+      <c r="Q25" s="2">
+        <v>5.5916345400000001E-5</v>
+      </c>
+      <c r="R25" s="2">
+        <v>7.4318766600000002E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>5.6125000000000001E-6</v>
       </c>
@@ -10088,8 +15501,17 @@
         <f t="shared" si="1"/>
         <v>4.1447878198717776</v>
       </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P26" s="2">
+        <v>1.49623547E-2</v>
+      </c>
+      <c r="Q26" s="2">
+        <v>6.5696010999999999E-5</v>
+      </c>
+      <c r="R26" s="2">
+        <v>8.0556087200000001E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>6.0124999999999996E-6</v>
       </c>
@@ -10134,8 +15556,17 @@
         <f t="shared" si="1"/>
         <v>4.655120792839945</v>
       </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P27" s="2">
+        <v>1.62181016E-2</v>
+      </c>
+      <c r="Q27" s="2">
+        <v>7.7186116E-5</v>
+      </c>
+      <c r="R27" s="2">
+        <v>8.73169154E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>6.4125E-6</v>
       </c>
@@ -10180,8 +15611,17 @@
         <f t="shared" si="1"/>
         <v>5.2328524567197672</v>
       </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P28" s="2">
+        <v>1.7579237000000001E-2</v>
+      </c>
+      <c r="Q28" s="2">
+        <v>9.0685796700000002E-5</v>
+      </c>
+      <c r="R28" s="2">
+        <v>9.4645142599999996E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>7.2125E-6</v>
       </c>
@@ -10226,8 +15666,17 @@
         <f t="shared" si="1"/>
         <v>5.8848689317022913</v>
       </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P29" s="2">
+        <v>1.9054606599999999E-2</v>
+      </c>
+      <c r="Q29" s="2">
+        <v>1.0654662E-4</v>
+      </c>
+      <c r="R29">
+        <v>0.1025884</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>8.0124999999999999E-6</v>
       </c>
@@ -10272,8 +15721,17 @@
         <f t="shared" si="1"/>
         <v>6.6180607928272615</v>
       </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P30" s="2">
+        <v>2.0653804800000002E-2</v>
+      </c>
+      <c r="Q30" s="2">
+        <v>1.2518140999999999E-4</v>
+      </c>
+      <c r="R30">
+        <v>0.111198328</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>8.8125000000000008E-6</v>
       </c>
@@ -10318,8 +15776,17 @@
         <f t="shared" si="1"/>
         <v>7.4392978938329426</v>
       </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P31" s="2">
+        <v>2.2387212100000001E-2</v>
+      </c>
+      <c r="Q31" s="2">
+        <v>1.47075349E-4</v>
+      </c>
+      <c r="R31">
+        <v>0.120530814</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>9.6124999999999999E-6</v>
       </c>
@@ -10364,8 +15831,17 @@
         <f t="shared" si="1"/>
         <v>8.3553594935886046</v>
       </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P32" s="2">
+        <v>2.42660996E-2</v>
+      </c>
+      <c r="Q32" s="2">
+        <v>1.7279862399999999E-4</v>
+      </c>
+      <c r="R32">
+        <v>0.130646557</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>1.0412500000000001E-5</v>
       </c>
@@ -10410,8 +15886,17 @@
         <f t="shared" si="1"/>
         <v>9.3723756619980918</v>
       </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P33" s="2">
+        <v>2.6302676600000002E-2</v>
+      </c>
+      <c r="Q33" s="2">
+        <v>2.0302073999999999E-4</v>
+      </c>
+      <c r="R33">
+        <v>0.141611248</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>1.12125E-5</v>
       </c>
@@ -10456,8 +15941,17 @@
         <f t="shared" si="1"/>
         <v>10.496370988107236</v>
       </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P34" s="2">
+        <v>2.8510185E-2</v>
+      </c>
+      <c r="Q34" s="2">
+        <v>2.38528781E-4</v>
+      </c>
+      <c r="R34">
+        <v>0.153496206</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>1.2012500000000001E-5</v>
       </c>
@@ -10502,8 +15996,17 @@
         <f t="shared" si="1"/>
         <v>11.732224176230263</v>
       </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P35" s="2">
+        <v>3.0902955700000002E-2</v>
+      </c>
+      <c r="Q35" s="2">
+        <v>2.8024695299999999E-4</v>
+      </c>
+      <c r="R35">
+        <v>0.16637860199999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>1.28125E-5</v>
       </c>
@@ -10548,8 +16051,17 @@
         <f t="shared" si="1"/>
         <v>13.084352228090438</v>
       </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P36" s="2">
+        <v>3.34965438E-2</v>
+      </c>
+      <c r="Q36" s="2">
+        <v>3.2926150000000003E-4</v>
+      </c>
+      <c r="R36">
+        <v>0.18034215300000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>1.44125E-5</v>
       </c>
@@ -10594,8 +16106,17 @@
         <f t="shared" si="1"/>
         <v>14.555752766612857</v>
       </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P37" s="2">
+        <v>3.6307800600000002E-2</v>
+      </c>
+      <c r="Q37" s="2">
+        <v>3.8684857999999998E-4</v>
+      </c>
+      <c r="R37">
+        <v>0.195477545</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>1.60125E-5</v>
       </c>
@@ -10640,8 +16161,17 @@
         <f t="shared" si="1"/>
         <v>16.148646239796673</v>
       </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P38" s="2">
+        <v>3.93550098E-2</v>
+      </c>
+      <c r="Q38" s="2">
+        <v>4.5450788499999998E-4</v>
+      </c>
+      <c r="R38">
+        <v>0.211883232</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>1.7612500000000001E-5</v>
       </c>
@@ -10686,8 +16216,17 @@
         <f t="shared" si="1"/>
         <v>17.864073523486898</v>
       </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P39" s="2">
+        <v>4.2657952800000003E-2</v>
+      </c>
+      <c r="Q39" s="2">
+        <v>5.3400016599999996E-4</v>
+      </c>
+      <c r="R39">
+        <v>0.22966574100000001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>1.9212499999999999E-5</v>
       </c>
@@ -10732,8 +16271,17 @@
         <f t="shared" si="1"/>
         <v>19.701948452215177</v>
       </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P40" s="2">
+        <v>4.6238098300000002E-2</v>
+      </c>
+      <c r="Q40" s="2">
+        <v>6.27395406E-4</v>
+      </c>
+      <c r="R40">
+        <v>0.24894060200000001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>2.0812500000000001E-5</v>
       </c>
@@ -10778,8 +16326,17 @@
         <f t="shared" si="1"/>
         <v>21.661753996244148</v>
       </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P41" s="2">
+        <v>5.01187295E-2</v>
+      </c>
+      <c r="Q41" s="2">
+        <v>7.3712592700000002E-4</v>
+      </c>
+      <c r="R41">
+        <v>0.26983317699999998</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>2.2412499999999999E-5</v>
       </c>
@@ -10824,8 +16381,17 @@
         <f t="shared" si="1"/>
         <v>23.74208412783436</v>
       </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P42" s="2">
+        <v>5.4325036700000003E-2</v>
+      </c>
+      <c r="Q42" s="2">
+        <v>8.66047107E-4</v>
+      </c>
+      <c r="R42">
+        <v>0.29247900799999998</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>2.4012500000000001E-5</v>
       </c>
@@ -10870,8 +16436,17 @@
         <f t="shared" si="1"/>
         <v>25.941545994588957</v>
       </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P43" s="2">
+        <v>5.8884363600000003E-2</v>
+      </c>
+      <c r="Q43" s="2">
+        <v>1.0175156600000001E-3</v>
+      </c>
+      <c r="R43">
+        <v>0.31702530400000001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>2.5612499999999999E-5</v>
       </c>
@@ -10916,8 +16491,17 @@
         <f t="shared" si="1"/>
         <v>28.258388773346212</v>
       </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P44" s="2">
+        <v>6.3826337499999997E-2</v>
+      </c>
+      <c r="Q44" s="2">
+        <v>1.19547616E-3</v>
+      </c>
+      <c r="R44">
+        <v>0.343631566</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>2.8812499999999999E-5</v>
       </c>
@@ -10962,8 +16546,17 @@
         <f t="shared" si="1"/>
         <v>30.693323027663325</v>
       </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P45" s="2">
+        <v>6.9183103699999998E-2</v>
+      </c>
+      <c r="Q45" s="2">
+        <v>1.4045620299999999E-3</v>
+      </c>
+      <c r="R45">
+        <v>0.372470737</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>3.2012499999999999E-5</v>
       </c>
@@ -11008,8 +16601,17 @@
         <f t="shared" si="1"/>
         <v>33.247261330008961</v>
       </c>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P46" s="2">
+        <v>7.4989423200000002E-2</v>
+      </c>
+      <c r="Q46" s="2">
+        <v>1.6502145399999999E-3</v>
+      </c>
+      <c r="R46">
+        <v>0.40372994499999998</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>3.5212500000000002E-5</v>
       </c>
@@ -11046,8 +16648,17 @@
       <c r="L47">
         <v>2.356E-3</v>
       </c>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P47" s="2">
+        <v>8.1283047799999994E-2</v>
+      </c>
+      <c r="Q47" s="2">
+        <v>1.93882943E-3</v>
+      </c>
+      <c r="R47">
+        <v>0.43761235500000001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>3.8412499999999999E-5</v>
       </c>
@@ -11084,8 +16695,17 @@
       <c r="L48">
         <v>2.4199999999999998E-3</v>
       </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P48" s="2">
+        <v>8.8104896200000005E-2</v>
+      </c>
+      <c r="Q48" s="2">
+        <v>2.27792165E-3</v>
+      </c>
+      <c r="R48">
+        <v>0.47433814400000002</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>4.1612500000000002E-5</v>
       </c>
@@ -11122,8 +16742,17 @@
       <c r="L49">
         <v>2.4870000000000001E-3</v>
       </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P49" s="2">
+        <v>9.5499262200000004E-2</v>
+      </c>
+      <c r="Q49" s="2">
+        <v>2.67631747E-3</v>
+      </c>
+      <c r="R49">
+        <v>0.51414555299999998</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>4.4812499999999998E-5</v>
       </c>
@@ -11160,8 +16789,17 @@
       <c r="L50">
         <v>2.5699999999999998E-3</v>
       </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P50">
+        <v>0.10351421700000001</v>
+      </c>
+      <c r="Q50" s="2">
+        <v>3.14438879E-3</v>
+      </c>
+      <c r="R50">
+        <v>0.55729341499999996</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>4.8012500000000002E-5</v>
       </c>
@@ -11198,8 +16836,17 @@
       <c r="L51">
         <v>2.6649999999999998E-3</v>
       </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P51">
+        <v>0.11220184699999999</v>
+      </c>
+      <c r="Q51" s="2">
+        <v>3.6943201000000001E-3</v>
+      </c>
+      <c r="R51">
+        <v>0.60406172300000005</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>5.1212499999999998E-5</v>
       </c>
@@ -11236,8 +16883,17 @@
       <c r="L52">
         <v>2.7629999999999998E-3</v>
       </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P52">
+        <v>0.121618591</v>
+      </c>
+      <c r="Q52" s="2">
+        <v>4.3404223400000004E-3</v>
+      </c>
+      <c r="R52">
+        <v>0.65475410199999995</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>5.7612499999999998E-5</v>
       </c>
@@ -11274,8 +16930,17 @@
       <c r="L53">
         <v>2.8660000000000001E-3</v>
       </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P53">
+        <v>0.13182567100000001</v>
+      </c>
+      <c r="Q53" s="2">
+        <v>5.0995219499999998E-3</v>
+      </c>
+      <c r="R53">
+        <v>0.70969968999999999</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>6.4012500000000004E-5</v>
       </c>
@@ -11312,8 +16977,17 @@
       <c r="L54">
         <v>2.9740000000000001E-3</v>
       </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P54">
+        <v>0.14288940999999999</v>
+      </c>
+      <c r="Q54" s="2">
+        <v>5.9913722799999998E-3</v>
+      </c>
+      <c r="R54">
+        <v>0.76925522099999999</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>7.0412499999999997E-5</v>
       </c>
@@ -11350,8 +17024,17 @@
       <c r="L55">
         <v>3.0660000000000001E-3</v>
       </c>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P55">
+        <v>0.15488165600000001</v>
+      </c>
+      <c r="Q55" s="2">
+        <v>7.0391814200000003E-3</v>
+      </c>
+      <c r="R55">
+        <v>0.83380681300000004</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>7.6812500000000004E-5</v>
       </c>
@@ -11388,8 +17071,17 @@
       <c r="L56">
         <v>3.1679999999999998E-3</v>
       </c>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P56">
+        <v>0.167880416</v>
+      </c>
+      <c r="Q56" s="2">
+        <v>8.2702217599999999E-3</v>
+      </c>
+      <c r="R56">
+        <v>0.90377372499999997</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>8.3212499999999997E-5</v>
       </c>
@@ -11426,8 +17118,17 @@
       <c r="L57">
         <v>3.261E-3</v>
       </c>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P57">
+        <v>0.18197007500000001</v>
+      </c>
+      <c r="Q57" s="2">
+        <v>9.7165284699999993E-3</v>
+      </c>
+      <c r="R57">
+        <v>0.97960913199999999</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>8.9612500000000003E-5</v>
       </c>
@@ -11464,8 +17165,17 @@
       <c r="L58">
         <v>3.3310000000000002E-3</v>
       </c>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P58">
+        <v>0.19724227499999999</v>
+      </c>
+      <c r="Q58" s="2">
+        <v>1.14157367E-2</v>
+      </c>
+      <c r="R58">
+        <v>1.06180501</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>9.6012499999999996E-5</v>
       </c>
@@ -11502,8 +17212,17 @@
       <c r="L59">
         <v>3.4129999999999998E-3</v>
       </c>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P59">
+        <v>0.21379619799999999</v>
+      </c>
+      <c r="Q59" s="2">
+        <v>1.34120565E-2</v>
+      </c>
+      <c r="R59">
+        <v>1.1508939300000001</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>1.02E-4</v>
       </c>
@@ -11540,8 +17259,17 @@
       <c r="L60">
         <v>3.4979999999999998E-3</v>
       </c>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P60">
+        <v>0.231739476</v>
+      </c>
+      <c r="Q60" s="2">
+        <v>1.5757422900000002E-2</v>
+      </c>
+      <c r="R60">
+        <v>1.24745321</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>1.15E-4</v>
       </c>
@@ -11578,8 +17306,17 @@
       <c r="L61">
         <v>3.5769999999999999E-3</v>
       </c>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P61">
+        <v>0.25118863600000002</v>
+      </c>
+      <c r="Q61" s="2">
+        <v>1.8512833900000001E-2</v>
+      </c>
+      <c r="R61">
+        <v>1.3521080000000001</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>1.2799999999999999E-4</v>
       </c>
@@ -11616,8 +17353,17 @@
       <c r="L62">
         <v>3.6809999999999998E-3</v>
       </c>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P62">
+        <v>0.27227014300000002</v>
+      </c>
+      <c r="Q62" s="2">
+        <v>2.1749949099999999E-2</v>
+      </c>
+      <c r="R62">
+        <v>1.46553552</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>1.4100000000000001E-4</v>
       </c>
@@ -11654,8 +17400,17 @@
       <c r="L63">
         <v>3.7859999999999999E-3</v>
       </c>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P63">
+        <v>0.29512095500000002</v>
+      </c>
+      <c r="Q63" s="2">
+        <v>2.55529322E-2</v>
+      </c>
+      <c r="R63">
+        <v>1.58846939</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>1.54E-4</v>
       </c>
@@ -11692,8 +17447,17 @@
       <c r="L64">
         <v>3.875E-3</v>
       </c>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P64">
+        <v>0.31988951599999998</v>
+      </c>
+      <c r="Q64" s="2">
+        <v>3.00206412E-2</v>
+      </c>
+      <c r="R64">
+        <v>1.72170329</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>1.66E-4</v>
       </c>
@@ -11730,8 +17494,17 @@
       <c r="L65">
         <v>3.9639999999999996E-3</v>
       </c>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P65">
+        <v>0.34673687800000003</v>
+      </c>
+      <c r="Q65" s="2">
+        <v>3.5269178499999998E-2</v>
+      </c>
+      <c r="R65">
+        <v>1.8660954199999999</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>1.7899999999999999E-4</v>
       </c>
@@ -11768,8 +17541,17 @@
       <c r="L66">
         <v>4.0350000000000004E-3</v>
       </c>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P66">
+        <v>0.37583741500000001</v>
+      </c>
+      <c r="Q66" s="2">
+        <v>4.14348841E-2</v>
+      </c>
+      <c r="R66">
+        <v>2.0225725200000002</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>1.92E-4</v>
       </c>
@@ -11806,8 +17588,17 @@
       <c r="L67">
         <v>4.1099999999999999E-3</v>
       </c>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P67">
+        <v>0.40738028300000001</v>
+      </c>
+      <c r="Q67" s="2">
+        <v>4.8677857999999997E-2</v>
+      </c>
+      <c r="R67">
+        <v>2.19215274</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>2.05E-4</v>
       </c>
@@ -11844,8 +17635,17 @@
       <c r="L68">
         <v>4.1929999999999997E-3</v>
       </c>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P68">
+        <v>0.44157046100000003</v>
+      </c>
+      <c r="Q68" s="2">
+        <v>5.7186078299999998E-2</v>
+      </c>
+      <c r="R68">
+        <v>2.37591624</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>2.3000000000000001E-4</v>
       </c>
@@ -11882,8 +17682,17 @@
       <c r="L69">
         <v>4.2880000000000001E-3</v>
       </c>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P69">
+        <v>0.478630096</v>
+      </c>
+      <c r="Q69" s="2">
+        <v>6.7180238700000006E-2</v>
+      </c>
+      <c r="R69">
+        <v>2.5750420100000002</v>
+      </c>
+    </row>
+    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>2.5599999999999999E-4</v>
       </c>
@@ -11920,8 +17729,17 @@
       <c r="L70">
         <v>4.3899999999999998E-3</v>
       </c>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P70">
+        <v>0.51880002000000003</v>
+      </c>
+      <c r="Q70" s="2">
+        <v>7.8919514999999996E-2</v>
+      </c>
+      <c r="R70">
+        <v>2.7908027199999998</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>2.8200000000000002E-4</v>
       </c>
@@ -11958,8 +17776,17 @@
       <c r="L71">
         <v>4.4910000000000002E-3</v>
       </c>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P71">
+        <v>0.56234133200000003</v>
+      </c>
+      <c r="Q71" s="2">
+        <v>9.2707857500000004E-2</v>
+      </c>
+      <c r="R71">
+        <v>3.0245754699999998</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>3.0699999999999998E-4</v>
       </c>
@@ -11996,8 +17823,17 @@
       <c r="L72">
         <v>4.5779999999999996E-3</v>
       </c>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P72">
+        <v>0.609536886</v>
+      </c>
+      <c r="Q72">
+        <v>0.108902186</v>
+      </c>
+      <c r="R72">
+        <v>3.2778470500000001</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>3.3300000000000002E-4</v>
       </c>
@@ -12034,8 +17870,17 @@
       <c r="L73">
         <v>4.6620000000000003E-3</v>
       </c>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P73">
+        <v>0.66069346699999998</v>
+      </c>
+      <c r="Q73">
+        <v>0.127921119</v>
+      </c>
+      <c r="R73">
+        <v>3.5522167699999998</v>
+      </c>
+    </row>
+    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>3.5799999999999997E-4</v>
       </c>
@@ -12072,8 +17917,17 @@
       <c r="L74">
         <v>4.7330000000000002E-3</v>
       </c>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P74">
+        <v>0.71614342900000005</v>
+      </c>
+      <c r="Q74">
+        <v>0.150255635</v>
+      </c>
+      <c r="R74">
+        <v>3.84941435</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>3.8400000000000001E-4</v>
       </c>
@@ -12110,8 +17964,17 @@
       <c r="L75">
         <v>4.81E-3</v>
       </c>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P75">
+        <v>0.77624714399999994</v>
+      </c>
+      <c r="Q75">
+        <v>0.17648150000000001</v>
+      </c>
+      <c r="R75">
+        <v>4.1713008900000004</v>
+      </c>
+    </row>
+    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>4.0999999999999999E-4</v>
       </c>
@@ -12148,8 +18011,17 @@
       <c r="L76">
         <v>4.8970000000000003E-3</v>
       </c>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P76">
+        <v>0.84139514000000004</v>
+      </c>
+      <c r="Q76">
+        <v>0.20727384099999999</v>
+      </c>
+      <c r="R76">
+        <v>4.5198783899999997</v>
+      </c>
+    </row>
+    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>4.6099999999999998E-4</v>
       </c>
@@ -12186,8 +18058,17 @@
       <c r="L77">
         <v>4.9959999999999996E-3</v>
       </c>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P77">
+        <v>0.91201084899999996</v>
+      </c>
+      <c r="Q77">
+        <v>0.24342344699999999</v>
+      </c>
+      <c r="R77">
+        <v>4.8973026300000004</v>
+      </c>
+    </row>
+    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>5.1199999999999998E-4</v>
       </c>
@@ -12224,8 +18105,17 @@
       <c r="L78">
         <v>5.1070000000000004E-3</v>
       </c>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P78">
+        <v>0.98855310699999999</v>
+      </c>
+      <c r="Q78">
+        <v>0.285856098</v>
+      </c>
+      <c r="R78">
+        <v>5.3058781599999998</v>
+      </c>
+    </row>
+    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>5.6300000000000002E-4</v>
       </c>
@@ -12262,8 +18152,17 @@
       <c r="L79">
         <v>5.2180000000000004E-3</v>
       </c>
-    </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P79">
+        <v>1.0715193700000001</v>
+      </c>
+      <c r="Q79">
+        <v>0.33565640400000002</v>
+      </c>
+      <c r="R79">
+        <v>5.7480831099999996</v>
+      </c>
+    </row>
+    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>6.1399999999999996E-4</v>
       </c>
@@ -12300,8 +18199,17 @@
       <c r="L80">
         <v>5.313E-3</v>
       </c>
-    </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P80">
+        <v>1.1614485999999999</v>
+      </c>
+      <c r="Q80">
+        <v>0.39409217200000002</v>
+      </c>
+      <c r="R80">
+        <v>6.2265539199999997</v>
+      </c>
+    </row>
+    <row r="81" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>6.6600000000000003E-4</v>
       </c>
@@ -12338,8 +18246,17 @@
       <c r="L81">
         <v>5.4039999999999999E-3</v>
       </c>
-    </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P81">
+        <v>1.2589254400000001</v>
+      </c>
+      <c r="Q81">
+        <v>0.462644905</v>
+      </c>
+      <c r="R81">
+        <v>6.7441105800000001</v>
+      </c>
+    </row>
+    <row r="82" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>7.1699999999999997E-4</v>
       </c>
@@ -12376,8 +18293,17 @@
       <c r="L82">
         <v>5.4840000000000002E-3</v>
       </c>
-    </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P82">
+        <v>1.36458313</v>
+      </c>
+      <c r="Q82">
+        <v>0.54304599799999997</v>
+      </c>
+      <c r="R82">
+        <v>7.3037419300000002</v>
+      </c>
+    </row>
+    <row r="83" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>7.6800000000000002E-4</v>
       </c>
@@ -12414,8 +18340,17 @@
       <c r="L83">
         <v>5.568E-3</v>
       </c>
-    </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P83">
+        <v>1.47910845</v>
+      </c>
+      <c r="Q83">
+        <v>0.63731354500000004</v>
+      </c>
+      <c r="R83">
+        <v>7.9086108199999998</v>
+      </c>
+    </row>
+    <row r="84" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>8.1899999999999996E-4</v>
       </c>
@@ -12452,8 +18387,17 @@
       <c r="L84">
         <v>5.6649999999999999E-3</v>
       </c>
-    </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P84">
+        <v>1.6032455000000001</v>
+      </c>
+      <c r="Q84">
+        <v>0.74779927700000004</v>
+      </c>
+      <c r="R84">
+        <v>8.5620517700000001</v>
+      </c>
+    </row>
+    <row r="85" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>9.2199999999999997E-4</v>
       </c>
@@ -12490,8 +18434,17 @@
       <c r="L85">
         <v>5.7759999999999999E-3</v>
       </c>
-    </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P85">
+        <v>1.73780084</v>
+      </c>
+      <c r="Q85">
+        <v>0.87723827399999998</v>
+      </c>
+      <c r="R85">
+        <v>9.2675485599999998</v>
+      </c>
+    </row>
+    <row r="86" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>1.024E-3</v>
       </c>
@@ -12528,8 +18481,17 @@
       <c r="L86">
         <v>5.8970000000000003E-3</v>
       </c>
-    </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P86">
+        <v>1.8836491099999999</v>
+      </c>
+      <c r="Q86">
+        <v>1.0288076399999999</v>
+      </c>
+      <c r="R86">
+        <v>10.0287323</v>
+      </c>
+    </row>
+    <row r="87" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>1.126E-3</v>
       </c>
@@ -12566,8 +18528,17 @@
       <c r="L87">
         <v>6.0150000000000004E-3</v>
       </c>
-    </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P87">
+        <v>2.0417380299999999</v>
+      </c>
+      <c r="Q87">
+        <v>1.2061852200000001</v>
+      </c>
+      <c r="R87">
+        <v>10.8493376</v>
+      </c>
+    </row>
+    <row r="88" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>1.2290000000000001E-3</v>
       </c>
@@ -12604,8 +18575,17 @@
       <c r="L88">
         <v>6.117E-3</v>
       </c>
-    </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P88">
+        <v>2.21309471</v>
+      </c>
+      <c r="Q88">
+        <v>1.4136278600000001</v>
+      </c>
+      <c r="R88">
+        <v>11.7331734</v>
+      </c>
+    </row>
+    <row r="89" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>1.3309999999999999E-3</v>
       </c>
@@ -12642,8 +18622,17 @@
       <c r="L89">
         <v>6.2129999999999998E-3</v>
       </c>
-    </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P89">
+        <v>2.3988328000000001</v>
+      </c>
+      <c r="Q89">
+        <v>1.6560360199999999</v>
+      </c>
+      <c r="R89">
+        <v>12.684058200000001</v>
+      </c>
+    </row>
+    <row r="90" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>1.4339999999999999E-3</v>
       </c>
@@ -12680,8 +18669,17 @@
       <c r="L90">
         <v>6.2940000000000001E-3</v>
       </c>
-    </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P90">
+        <v>2.6001596500000002</v>
+      </c>
+      <c r="Q90">
+        <v>1.9390416100000001</v>
+      </c>
+      <c r="R90">
+        <v>13.70576</v>
+      </c>
+    </row>
+    <row r="91" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>1.536E-3</v>
       </c>
@@ -12718,8 +18716,17 @@
       <c r="L91">
         <v>6.3819999999999997E-3</v>
       </c>
-    </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P91">
+        <v>2.81838298</v>
+      </c>
+      <c r="Q91">
+        <v>2.26908398</v>
+      </c>
+      <c r="R91">
+        <v>14.8019018</v>
+      </c>
+    </row>
+    <row r="92" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>1.6379999999999999E-3</v>
       </c>
@@ -12756,8 +18763,17 @@
       <c r="L92">
         <v>6.4900000000000001E-3</v>
       </c>
-    </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P92">
+        <v>3.0549211500000002</v>
+      </c>
+      <c r="Q92">
+        <v>2.6534948300000001</v>
+      </c>
+      <c r="R92">
+        <v>15.9758377</v>
+      </c>
+    </row>
+    <row r="93" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>1.843E-3</v>
       </c>
@@ -12794,8 +18810,17 @@
       <c r="L93">
         <v>6.6140000000000001E-3</v>
       </c>
-    </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P93">
+        <v>3.3113110099999998</v>
+      </c>
+      <c r="Q93">
+        <v>3.1005735400000001</v>
+      </c>
+      <c r="R93">
+        <v>17.2304821</v>
+      </c>
+    </row>
+    <row r="94" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>2.0479999999999999E-3</v>
       </c>
@@ -12832,8 +18857,17 @@
       <c r="L94">
         <v>6.7520000000000002E-3</v>
       </c>
-    </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P94">
+        <v>3.5892193300000002</v>
+      </c>
+      <c r="Q94">
+        <v>3.6196489299999999</v>
+      </c>
+      <c r="R94">
+        <v>18.568162900000001</v>
+      </c>
+    </row>
+    <row r="95" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>2.2529999999999998E-3</v>
       </c>
@@ -12870,8 +18904,17 @@
       <c r="L95">
         <v>6.8910000000000004E-3</v>
       </c>
-    </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P95">
+        <v>3.89045167</v>
+      </c>
+      <c r="Q95">
+        <v>4.2211184499999996</v>
+      </c>
+      <c r="R95">
+        <v>19.990366000000002</v>
+      </c>
+    </row>
+    <row r="96" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>2.4580000000000001E-3</v>
       </c>
@@ -12908,8 +18951,17 @@
       <c r="L96">
         <v>7.012E-3</v>
       </c>
-    </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P96">
+        <v>4.2169651999999997</v>
+      </c>
+      <c r="Q96">
+        <v>4.91647005</v>
+      </c>
+      <c r="R96">
+        <v>21.497533799999999</v>
+      </c>
+    </row>
+    <row r="97" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>2.6619999999999999E-3</v>
       </c>
@@ -12946,8 +18998,17 @@
       <c r="L97">
         <v>7.123E-3</v>
       </c>
-    </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P97">
+        <v>4.5708823199999999</v>
+      </c>
+      <c r="Q97">
+        <v>5.7182312</v>
+      </c>
+      <c r="R97">
+        <v>23.088602099999999</v>
+      </c>
+    </row>
+    <row r="98" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>2.8670000000000002E-3</v>
       </c>
@@ -12984,8 +19045,17 @@
       <c r="L98">
         <v>7.2220000000000001E-3</v>
       </c>
-    </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P98">
+        <v>4.9545016300000002</v>
+      </c>
+      <c r="Q98">
+        <v>6.6398706399999998</v>
+      </c>
+      <c r="R98">
+        <v>24.7608833</v>
+      </c>
+    </row>
+    <row r="99" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>3.0720000000000001E-3</v>
       </c>
@@ -13022,8 +19092,17 @@
       <c r="L99">
         <v>7.3270000000000002E-3</v>
       </c>
-    </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P99">
+        <v>5.3703184100000003</v>
+      </c>
+      <c r="Q99">
+        <v>7.6956286399999998</v>
+      </c>
+      <c r="R99">
+        <v>26.509508100000001</v>
+      </c>
+    </row>
+    <row r="100" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>3.277E-3</v>
       </c>
@@ -13060,8 +19139,17 @@
       <c r="L100">
         <v>7.4479999999999998E-3</v>
       </c>
-    </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P100">
+        <v>5.8210320500000003</v>
+      </c>
+      <c r="Q100">
+        <v>8.9002084700000008</v>
+      </c>
+      <c r="R100">
+        <v>28.327096900000001</v>
+      </c>
+    </row>
+    <row r="101" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>3.686E-3</v>
       </c>
@@ -13098,8 +19186,17 @@
       <c r="L101">
         <v>7.5909999999999997E-3</v>
       </c>
-    </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P101">
+        <v>6.3095736499999999</v>
+      </c>
+      <c r="Q101">
+        <v>10.268359200000001</v>
+      </c>
+      <c r="R101">
+        <v>30.2034798</v>
+      </c>
+    </row>
+    <row r="102" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>4.0959999999999998E-3</v>
       </c>
@@ -13136,8 +19233,17 @@
       <c r="L102">
         <v>7.7460000000000003E-3</v>
       </c>
-    </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P102">
+        <v>6.8391170499999996</v>
+      </c>
+      <c r="Q102">
+        <v>11.8143692</v>
+      </c>
+      <c r="R102">
+        <v>32.125217399999997</v>
+      </c>
+    </row>
+    <row r="103" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>4.5059999999999996E-3</v>
       </c>
@@ -13174,8 +19280,17 @@
       <c r="L103">
         <v>7.8989999999999998E-3</v>
       </c>
-    </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P103">
+        <v>7.41310263</v>
+      </c>
+      <c r="Q103">
+        <v>13.5513086</v>
+      </c>
+      <c r="R103">
+        <v>34.075557699999997</v>
+      </c>
+    </row>
+    <row r="104" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>4.9150000000000001E-3</v>
       </c>
@@ -13212,8 +19327,17 @@
       <c r="L104">
         <v>8.0309999999999999E-3</v>
       </c>
-    </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P104">
+        <v>8.0352621099999997</v>
+      </c>
+      <c r="Q104">
+        <v>15.490226699999999</v>
+      </c>
+      <c r="R104">
+        <v>36.034130099999999</v>
+      </c>
+    </row>
+    <row r="105" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>5.3249999999999999E-3</v>
       </c>
@@ -13250,8 +19374,17 @@
       <c r="L105">
         <v>8.1569999999999993E-3</v>
       </c>
-    </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P105">
+        <v>8.7096357300000005</v>
+      </c>
+      <c r="Q105">
+        <v>17.639215499999999</v>
+      </c>
+      <c r="R105">
+        <v>37.977359800000002</v>
+      </c>
+    </row>
+    <row r="106" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>5.7340000000000004E-3</v>
       </c>
@@ -13288,8 +19421,17 @@
       <c r="L106">
         <v>8.2649999999999998E-3</v>
       </c>
-    </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P106">
+        <v>9.4406089800000004</v>
+      </c>
+      <c r="Q106">
+        <v>20.002458600000001</v>
+      </c>
+      <c r="R106">
+        <v>39.878711699999997</v>
+      </c>
+    </row>
+    <row r="107" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>6.1440000000000002E-3</v>
       </c>
@@ -13326,8 +19468,17 @@
       <c r="L107">
         <v>8.3870000000000004E-3</v>
       </c>
-    </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P107">
+        <v>10.232929199999999</v>
+      </c>
+      <c r="Q107">
+        <v>22.579193100000001</v>
+      </c>
+      <c r="R107">
+        <v>41.709468800000003</v>
+      </c>
+    </row>
+    <row r="108" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>6.5539999999999999E-3</v>
       </c>
@@ -13364,8 +19515,17 @@
       <c r="L108">
         <v>8.5419999999999992E-3</v>
       </c>
-    </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P108">
+        <v>11.0917473</v>
+      </c>
+      <c r="Q108">
+        <v>25.362983700000001</v>
+      </c>
+      <c r="R108">
+        <v>43.439712499999999</v>
+      </c>
+    </row>
+    <row r="109" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>7.3730000000000002E-3</v>
       </c>
@@ -13402,8 +19562,17 @@
       <c r="L109">
         <v>8.7329999999999994E-3</v>
       </c>
-    </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P109">
+        <v>12.022646</v>
+      </c>
+      <c r="Q109">
+        <v>28.341182700000001</v>
+      </c>
+      <c r="R109">
+        <v>45.039817800000002</v>
+      </c>
+    </row>
+    <row r="110" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>8.1919999999999996E-3</v>
       </c>
@@ -13440,8 +19609,17 @@
       <c r="L110">
         <v>8.9499999999999996E-3</v>
       </c>
-    </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P110">
+        <v>13.0316677</v>
+      </c>
+      <c r="Q110">
+        <v>31.494695700000001</v>
+      </c>
+      <c r="R110">
+        <v>46.481918299999997</v>
+      </c>
+    </row>
+    <row r="111" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>9.0109999999999999E-3</v>
       </c>
@@ -13478,8 +19656,17 @@
       <c r="L111">
         <v>9.1780000000000004E-3</v>
       </c>
-    </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P111">
+        <v>14.125374799999999</v>
+      </c>
+      <c r="Q111">
+        <v>34.798454300000003</v>
+      </c>
+      <c r="R111">
+        <v>47.741695399999998</v>
+      </c>
+    </row>
+    <row r="112" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>9.8300000000000002E-3</v>
       </c>
@@ -13516,8 +19703,17 @@
       <c r="L112">
         <v>9.3849999999999992E-3</v>
       </c>
-    </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P112">
+        <v>15.310876800000001</v>
+      </c>
+      <c r="Q112">
+        <v>38.2222176</v>
+      </c>
+      <c r="R112">
+        <v>48.799831400000002</v>
+      </c>
+    </row>
+    <row r="113" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>1.065E-2</v>
       </c>
@@ -13554,8 +19750,17 @@
       <c r="L113">
         <v>9.5849999999999998E-3</v>
       </c>
-    </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P113">
+        <v>16.595870999999999</v>
+      </c>
+      <c r="Q113">
+        <v>41.731803900000003</v>
+      </c>
+      <c r="R113">
+        <v>49.643375399999996</v>
+      </c>
+    </row>
+    <row r="114" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>1.1469E-2</v>
       </c>
@@ -13592,8 +19797,17 @@
       <c r="L114">
         <v>9.7640000000000001E-3</v>
       </c>
-    </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P114">
+        <v>17.988708500000001</v>
+      </c>
+      <c r="Q114">
+        <v>45.291145299999997</v>
+      </c>
+      <c r="R114">
+        <v>50.266731299999996</v>
+      </c>
+    </row>
+    <row r="115" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>1.2288E-2</v>
       </c>
@@ -13630,8 +19844,17 @@
       <c r="L115">
         <v>9.9629999999999996E-3</v>
       </c>
-    </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P115">
+        <v>19.498443600000002</v>
+      </c>
+      <c r="Q115">
+        <v>48.863834400000002</v>
+      </c>
+      <c r="R115">
+        <v>50.6717224</v>
+      </c>
+    </row>
+    <row r="116" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>1.3107000000000001E-2</v>
       </c>
@@ -13668,8 +19891,17 @@
       <c r="L116">
         <v>1.0196999999999999E-2</v>
       </c>
-    </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P116">
+        <v>21.134893399999999</v>
+      </c>
+      <c r="Q116">
+        <v>52.415363300000003</v>
+      </c>
+      <c r="R116">
+        <v>50.867637600000002</v>
+      </c>
+    </row>
+    <row r="117" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>1.4746E-2</v>
       </c>
@@ -13706,8 +19938,17 @@
       <c r="L117">
         <v>1.0477999999999999E-2</v>
       </c>
-    </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P117">
+        <v>22.908678099999999</v>
+      </c>
+      <c r="Q117">
+        <v>55.914775800000001</v>
+      </c>
+      <c r="R117">
+        <v>50.869941699999998</v>
+      </c>
+    </row>
+    <row r="118" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>1.6383999999999999E-2</v>
       </c>
@@ -13744,8 +19985,17 @@
       <c r="L118">
         <v>1.0796999999999999E-2</v>
       </c>
-    </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P118">
+        <v>24.8313293</v>
+      </c>
+      <c r="Q118">
+        <v>59.335998500000002</v>
+      </c>
+      <c r="R118">
+        <v>50.699409500000002</v>
+      </c>
+    </row>
+    <row r="119" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>1.8022E-2</v>
       </c>
@@ -13782,8 +20032,17 @@
       <c r="L119">
         <v>1.1141E-2</v>
       </c>
-    </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P119">
+        <v>26.915351900000001</v>
+      </c>
+      <c r="Q119">
+        <v>62.658760100000002</v>
+      </c>
+      <c r="R119">
+        <v>50.380252800000001</v>
+      </c>
+    </row>
+    <row r="120" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>1.9661000000000001E-2</v>
       </c>
@@ -13820,8 +20079,17 @@
       <c r="L120">
         <v>1.1469E-2</v>
       </c>
-    </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P120">
+        <v>29.174272500000001</v>
+      </c>
+      <c r="Q120">
+        <v>65.868774400000007</v>
+      </c>
+      <c r="R120">
+        <v>49.938594799999997</v>
+      </c>
+    </row>
+    <row r="121" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>2.1298999999999998E-2</v>
       </c>
@@ -13858,8 +20126,17 @@
       <c r="L121">
         <v>1.1809E-2</v>
       </c>
-    </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P121">
+        <v>31.622776000000002</v>
+      </c>
+      <c r="Q121">
+        <v>68.9578171</v>
+      </c>
+      <c r="R121">
+        <v>49.400917100000001</v>
+      </c>
+    </row>
+    <row r="122" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>2.2938E-2</v>
       </c>
@@ -13896,8 +20173,17 @@
       <c r="L122">
         <v>1.2107E-2</v>
       </c>
-    </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P122">
+        <v>34.276775399999998</v>
+      </c>
+      <c r="Q122">
+        <v>71.922996499999996</v>
+      </c>
+      <c r="R122">
+        <v>48.792743700000003</v>
+      </c>
+    </row>
+    <row r="123" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>2.4576000000000001E-2</v>
       </c>
@@ -13934,8 +20220,17 @@
       <c r="L123">
         <v>1.2432E-2</v>
       </c>
-    </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P123">
+        <v>37.153526300000003</v>
+      </c>
+      <c r="Q123">
+        <v>74.766403199999999</v>
+      </c>
+      <c r="R123">
+        <v>48.137550400000002</v>
+      </c>
+    </row>
+    <row r="124" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>2.6214000000000001E-2</v>
       </c>
@@ -13972,8 +20267,17 @@
       <c r="L124">
         <v>1.2828000000000001E-2</v>
       </c>
-    </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P124">
+        <v>40.271705599999997</v>
+      </c>
+      <c r="Q124">
+        <v>77.493614199999996</v>
+      </c>
+      <c r="R124">
+        <v>47.4560928</v>
+      </c>
+    </row>
+    <row r="125" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>2.9491E-2</v>
       </c>
@@ -14010,8 +20314,17 @@
       <c r="L125">
         <v>1.3322000000000001E-2</v>
       </c>
-    </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P125">
+        <v>43.651580799999998</v>
+      </c>
+      <c r="Q125">
+        <v>80.113395699999998</v>
+      </c>
+      <c r="R125">
+        <v>46.765808100000001</v>
+      </c>
+    </row>
+    <row r="126" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>3.2767999999999999E-2</v>
       </c>
@@ -14048,8 +20361,17 @@
       <c r="L126">
         <v>1.3901E-2</v>
       </c>
-    </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P126">
+        <v>47.3151321</v>
+      </c>
+      <c r="Q126">
+        <v>82.636505099999994</v>
+      </c>
+      <c r="R126">
+        <v>46.080833400000003</v>
+      </c>
+    </row>
+    <row r="127" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>3.6045000000000001E-2</v>
       </c>
@@ -14086,8 +20408,17 @@
       <c r="L127">
         <v>1.4531000000000001E-2</v>
       </c>
-    </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P127">
+        <v>51.286144299999997</v>
+      </c>
+      <c r="Q127">
+        <v>85.074485800000005</v>
+      </c>
+      <c r="R127">
+        <v>45.411739300000001</v>
+      </c>
+    </row>
+    <row r="128" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>3.9322000000000003E-2</v>
       </c>
@@ -14124,8 +20455,17 @@
       <c r="L128">
         <v>1.5128000000000001E-2</v>
       </c>
-    </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P128">
+        <v>55.590427400000003</v>
+      </c>
+      <c r="Q128">
+        <v>87.439788800000002</v>
+      </c>
+      <c r="R128">
+        <v>44.765788999999998</v>
+      </c>
+    </row>
+    <row r="129" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>4.2597999999999997E-2</v>
       </c>
@@ -14162,8 +20502,17 @@
       <c r="L129">
         <v>1.5724999999999999E-2</v>
       </c>
-    </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P129">
+        <v>60.255954699999997</v>
+      </c>
+      <c r="Q129">
+        <v>89.744361900000001</v>
+      </c>
+      <c r="R129">
+        <v>44.147121400000003</v>
+      </c>
+    </row>
+    <row r="130" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>4.5874999999999999E-2</v>
       </c>
@@ -14200,8 +20549,17 @@
       <c r="L130">
         <v>1.6234999999999999E-2</v>
       </c>
-    </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P130">
+        <v>65.313064600000004</v>
+      </c>
+      <c r="Q130">
+        <v>91.999191300000007</v>
+      </c>
+      <c r="R130">
+        <v>43.557033500000003</v>
+      </c>
+    </row>
+    <row r="131" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>4.9152000000000001E-2</v>
       </c>
@@ -14238,8 +20596,17 @@
       <c r="L131">
         <v>1.6820000000000002E-2</v>
       </c>
-    </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P131">
+        <v>70.794578599999994</v>
+      </c>
+      <c r="Q131">
+        <v>94.214088399999994</v>
+      </c>
+      <c r="R131">
+        <v>42.994598400000001</v>
+      </c>
+    </row>
+    <row r="132" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>5.2429000000000003E-2</v>
       </c>
@@ -14276,8 +20643,17 @@
       <c r="L132">
         <v>1.7572999999999998E-2</v>
       </c>
-    </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P132">
+        <v>76.736144999999993</v>
+      </c>
+      <c r="Q132">
+        <v>96.397186300000001</v>
+      </c>
+      <c r="R132">
+        <v>42.456920599999997</v>
+      </c>
+    </row>
+    <row r="133" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>5.8982E-2</v>
       </c>
@@ -14314,8 +20690,17 @@
       <c r="L133">
         <v>1.8530999999999999E-2</v>
       </c>
-    </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P133">
+        <v>83.176391600000002</v>
+      </c>
+      <c r="Q133">
+        <v>98.554695100000004</v>
+      </c>
+      <c r="R133">
+        <v>41.939910900000001</v>
+      </c>
+    </row>
+    <row r="134" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>6.5535999999999997E-2</v>
       </c>
@@ -14352,8 +20737,17 @@
       <c r="L134">
         <v>1.968E-2</v>
       </c>
-    </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P134">
+        <v>90.157119800000004</v>
+      </c>
+      <c r="Q134">
+        <v>100.690865</v>
+      </c>
+      <c r="R134">
+        <v>41.438716900000003</v>
+      </c>
+    </row>
+    <row r="135" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>7.2090000000000001E-2</v>
       </c>
@@ -14390,8 +20784,17 @@
       <c r="L135">
         <v>2.0931000000000002E-2</v>
       </c>
-    </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P135">
+        <v>97.723724399999995</v>
+      </c>
+      <c r="Q135">
+        <v>102.80777</v>
+      </c>
+      <c r="R135">
+        <v>40.948181200000001</v>
+      </c>
+    </row>
+    <row r="136" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>7.8643000000000005E-2</v>
       </c>
@@ -14428,8 +20831,17 @@
       <c r="L136">
         <v>2.2096999999999999E-2</v>
       </c>
-    </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P136">
+        <v>105.925392</v>
+      </c>
+      <c r="Q136">
+        <v>104.905922</v>
+      </c>
+      <c r="R136">
+        <v>40.463508599999997</v>
+      </c>
+    </row>
+    <row r="137" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>8.5196999999999995E-2</v>
       </c>
@@ -14466,8 +20878,17 @@
       <c r="L137">
         <v>2.3295E-2</v>
       </c>
-    </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P137">
+        <v>114.81534600000001</v>
+      </c>
+      <c r="Q137">
+        <v>106.984238</v>
+      </c>
+      <c r="R137">
+        <v>39.980495500000004</v>
+      </c>
+    </row>
+    <row r="138" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>9.1749999999999998E-2</v>
       </c>
@@ -14504,8 +20925,17 @@
       <c r="L138">
         <v>2.436E-2</v>
       </c>
-    </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P138">
+        <v>124.451469</v>
+      </c>
+      <c r="Q138">
+        <v>109.040192</v>
+      </c>
+      <c r="R138">
+        <v>39.495960199999999</v>
+      </c>
+    </row>
+    <row r="139" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>9.8304000000000002E-2</v>
       </c>
@@ -14542,8 +20972,17 @@
       <c r="L139">
         <v>2.5590000000000002E-2</v>
       </c>
-    </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P139">
+        <v>134.89631700000001</v>
+      </c>
+      <c r="Q139">
+        <v>111.070778</v>
+      </c>
+      <c r="R139">
+        <v>39.007984200000003</v>
+      </c>
+    </row>
+    <row r="140" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>0.10485800000000001</v>
       </c>
@@ -14580,8 +21019,17 @@
       <c r="L140">
         <v>2.7186999999999999E-2</v>
       </c>
-    </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P140">
+        <v>146.21769699999999</v>
+      </c>
+      <c r="Q140">
+        <v>113.07205999999999</v>
+      </c>
+      <c r="R140">
+        <v>38.515785200000003</v>
+      </c>
+    </row>
+    <row r="141" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>0.117965</v>
       </c>
@@ -14618,8 +21066,17 @@
       <c r="L141">
         <v>2.9221E-2</v>
       </c>
-    </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P141">
+        <v>158.48933400000001</v>
+      </c>
+      <c r="Q141">
+        <v>115.040344</v>
+      </c>
+      <c r="R141">
+        <v>38.020023299999998</v>
+      </c>
+    </row>
+    <row r="142" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>0.13107199999999999</v>
       </c>
@@ -14656,8 +21113,17 @@
       <c r="L142">
         <v>3.1632E-2</v>
       </c>
-    </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P142">
+        <v>171.79089400000001</v>
+      </c>
+      <c r="Q142">
+        <v>116.97199999999999</v>
+      </c>
+      <c r="R142">
+        <v>37.522399900000003</v>
+      </c>
+    </row>
+    <row r="143" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>0.144179</v>
       </c>
@@ -14694,8 +21160,17 @@
       <c r="L143">
         <v>3.4096000000000001E-2</v>
       </c>
-    </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P143">
+        <v>186.20871</v>
+      </c>
+      <c r="Q143">
+        <v>118.86409</v>
+      </c>
+      <c r="R143">
+        <v>37.025707199999999</v>
+      </c>
+    </row>
+    <row r="144" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>0.15728600000000001</v>
       </c>
@@ -14732,8 +21207,17 @@
       <c r="L144">
         <v>3.6774000000000001E-2</v>
       </c>
-    </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P144">
+        <v>201.83667</v>
+      </c>
+      <c r="Q144">
+        <v>120.71410400000001</v>
+      </c>
+      <c r="R144">
+        <v>36.533416699999997</v>
+      </c>
+    </row>
+    <row r="145" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>0.17039399999999999</v>
       </c>
@@ -14770,8 +21254,17 @@
       <c r="L145">
         <v>3.9683000000000003E-2</v>
       </c>
-    </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P145">
+        <v>218.77612300000001</v>
+      </c>
+      <c r="Q145">
+        <v>122.520523</v>
+      </c>
+      <c r="R145">
+        <v>36.049545299999998</v>
+      </c>
+    </row>
+    <row r="146" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>0.183501</v>
       </c>
@@ -14808,8 +21301,17 @@
       <c r="L146">
         <v>4.2159000000000002E-2</v>
       </c>
-    </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P146">
+        <v>237.13737499999999</v>
+      </c>
+      <c r="Q146">
+        <v>124.282402</v>
+      </c>
+      <c r="R146">
+        <v>35.578357699999998</v>
+      </c>
+    </row>
+    <row r="147" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>0.39981499999999998</v>
       </c>
@@ -14846,8 +21348,17 @@
       <c r="L147">
         <v>8.8178000000000006E-2</v>
       </c>
-    </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P147">
+        <v>257.03964200000001</v>
+      </c>
+      <c r="Q147">
+        <v>125.999802</v>
+      </c>
+      <c r="R147">
+        <v>35.124217999999999</v>
+      </c>
+    </row>
+    <row r="148" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>0.59972199999999998</v>
       </c>
@@ -14884,8 +21395,17 @@
       <c r="L148">
         <v>0.132492</v>
       </c>
-    </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P148">
+        <v>278.61206099999998</v>
+      </c>
+      <c r="Q148">
+        <v>127.673042</v>
+      </c>
+      <c r="R148">
+        <v>34.691383399999999</v>
+      </c>
+    </row>
+    <row r="149" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>0.79962900000000003</v>
       </c>
@@ -14922,8 +21442,17 @@
       <c r="L149">
         <v>0.18076800000000001</v>
       </c>
-    </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P149">
+        <v>301.99517800000001</v>
+      </c>
+      <c r="Q149">
+        <v>129.30311599999999</v>
+      </c>
+      <c r="R149">
+        <v>34.284061399999999</v>
+      </c>
+    </row>
+    <row r="150" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>0.99953599999999998</v>
       </c>
@@ -14960,8 +21489,17 @@
       <c r="L150">
         <v>0.23066500000000001</v>
       </c>
-    </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P150">
+        <v>327.34075899999999</v>
+      </c>
+      <c r="Q150">
+        <v>130.89158599999999</v>
+      </c>
+      <c r="R150">
+        <v>33.906330099999998</v>
+      </c>
+    </row>
+    <row r="151" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>1.1994400000000001</v>
       </c>
@@ -14998,8 +21536,17 @@
       <c r="L151">
         <v>0.27849099999999999</v>
       </c>
-    </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P151">
+        <v>354.813354</v>
+      </c>
+      <c r="Q151">
+        <v>132.439514</v>
+      </c>
+      <c r="R151">
+        <v>33.562213900000003</v>
+      </c>
+    </row>
+    <row r="152" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>1.3993500000000001</v>
       </c>
@@ -15035,6 +21582,774 @@
       </c>
       <c r="L152">
         <v>0.33000600000000002</v>
+      </c>
+      <c r="P152">
+        <v>384.59182700000002</v>
+      </c>
+      <c r="Q152">
+        <v>133.94935599999999</v>
+      </c>
+      <c r="R152">
+        <v>33.255680099999999</v>
+      </c>
+    </row>
+    <row r="153" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="P153">
+        <v>416.869507</v>
+      </c>
+      <c r="Q153">
+        <v>135.42330899999999</v>
+      </c>
+      <c r="R153">
+        <v>32.9906845</v>
+      </c>
+    </row>
+    <row r="154" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="P154">
+        <v>451.85592700000001</v>
+      </c>
+      <c r="Q154">
+        <v>136.86402899999999</v>
+      </c>
+      <c r="R154">
+        <v>32.771221199999999</v>
+      </c>
+    </row>
+    <row r="155" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="P155">
+        <v>489.77886999999998</v>
+      </c>
+      <c r="Q155">
+        <v>138.27462800000001</v>
+      </c>
+      <c r="R155">
+        <v>32.601062800000001</v>
+      </c>
+    </row>
+    <row r="156" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="P156">
+        <v>530.88433799999996</v>
+      </c>
+      <c r="Q156">
+        <v>139.658951</v>
+      </c>
+      <c r="R156">
+        <v>32.483856199999998</v>
+      </c>
+    </row>
+    <row r="157" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="P157">
+        <v>575.43994099999998</v>
+      </c>
+      <c r="Q157">
+        <v>141.020905</v>
+      </c>
+      <c r="R157">
+        <v>32.422885899999997</v>
+      </c>
+    </row>
+    <row r="158" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="P158">
+        <v>623.73492399999998</v>
+      </c>
+      <c r="Q158">
+        <v>142.36473100000001</v>
+      </c>
+      <c r="R158">
+        <v>32.4209976</v>
+      </c>
+    </row>
+    <row r="159" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="P159">
+        <v>676.08288600000003</v>
+      </c>
+      <c r="Q159">
+        <v>143.69523599999999</v>
+      </c>
+      <c r="R159">
+        <v>32.4805183</v>
+      </c>
+    </row>
+    <row r="160" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="P160">
+        <v>732.824524</v>
+      </c>
+      <c r="Q160">
+        <v>145.016739</v>
+      </c>
+      <c r="R160">
+        <v>32.603469799999999</v>
+      </c>
+    </row>
+    <row r="161" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P161">
+        <v>794.32843000000003</v>
+      </c>
+      <c r="Q161">
+        <v>146.334</v>
+      </c>
+      <c r="R161">
+        <v>32.791320800000001</v>
+      </c>
+    </row>
+    <row r="162" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P162">
+        <v>860.993652</v>
+      </c>
+      <c r="Q162">
+        <v>147.65107699999999</v>
+      </c>
+      <c r="R162">
+        <v>33.0453033</v>
+      </c>
+    </row>
+    <row r="163" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P163">
+        <v>933.25433299999997</v>
+      </c>
+      <c r="Q163">
+        <v>148.97212200000001</v>
+      </c>
+      <c r="R163">
+        <v>33.366451300000001</v>
+      </c>
+    </row>
+    <row r="164" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P164">
+        <v>1011.57971</v>
+      </c>
+      <c r="Q164">
+        <v>150.30107100000001</v>
+      </c>
+      <c r="R164">
+        <v>33.755767800000001</v>
+      </c>
+    </row>
+    <row r="165" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P165">
+        <v>1096.4781499999999</v>
+      </c>
+      <c r="Q165">
+        <v>151.641479</v>
+      </c>
+      <c r="R165">
+        <v>34.214271500000002</v>
+      </c>
+    </row>
+    <row r="166" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P166">
+        <v>1188.5023200000001</v>
+      </c>
+      <c r="Q166">
+        <v>152.99719200000001</v>
+      </c>
+      <c r="R166">
+        <v>34.7430077</v>
+      </c>
+    </row>
+    <row r="167" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P167">
+        <v>1288.25</v>
+      </c>
+      <c r="Q167">
+        <v>154.37228400000001</v>
+      </c>
+      <c r="R167">
+        <v>35.3430252</v>
+      </c>
+    </row>
+    <row r="168" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P168">
+        <v>1396.3682899999999</v>
+      </c>
+      <c r="Q168">
+        <v>155.77044699999999</v>
+      </c>
+      <c r="R168">
+        <v>36.015350300000001</v>
+      </c>
+    </row>
+    <row r="169" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P169">
+        <v>1513.56152</v>
+      </c>
+      <c r="Q169">
+        <v>157.19574</v>
+      </c>
+      <c r="R169">
+        <v>36.760635399999998</v>
+      </c>
+    </row>
+    <row r="170" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P170">
+        <v>1640.5894800000001</v>
+      </c>
+      <c r="Q170">
+        <v>158.652298</v>
+      </c>
+      <c r="R170">
+        <v>37.579284700000002</v>
+      </c>
+    </row>
+    <row r="171" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P171">
+        <v>1778.2794200000001</v>
+      </c>
+      <c r="Q171">
+        <v>160.14376799999999</v>
+      </c>
+      <c r="R171">
+        <v>38.471206700000003</v>
+      </c>
+    </row>
+    <row r="172" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P172">
+        <v>1927.5252700000001</v>
+      </c>
+      <c r="Q172">
+        <v>161.67411799999999</v>
+      </c>
+      <c r="R172">
+        <v>39.435600299999997</v>
+      </c>
+    </row>
+    <row r="173" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P173">
+        <v>2089.2959000000001</v>
+      </c>
+      <c r="Q173">
+        <v>163.245926</v>
+      </c>
+      <c r="R173">
+        <v>40.4713821</v>
+      </c>
+    </row>
+    <row r="174" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P174">
+        <v>2264.6442900000002</v>
+      </c>
+      <c r="Q174">
+        <v>164.861008</v>
+      </c>
+      <c r="R174">
+        <v>41.576984400000001</v>
+      </c>
+    </row>
+    <row r="175" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P175">
+        <v>2454.7094699999998</v>
+      </c>
+      <c r="Q175">
+        <v>166.52003500000001</v>
+      </c>
+      <c r="R175">
+        <v>42.750888799999998</v>
+      </c>
+    </row>
+    <row r="176" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P176">
+        <v>2660.7248500000001</v>
+      </c>
+      <c r="Q176">
+        <v>168.22207599999999</v>
+      </c>
+      <c r="R176">
+        <v>43.991836499999998</v>
+      </c>
+    </row>
+    <row r="177" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P177">
+        <v>2884.0317399999999</v>
+      </c>
+      <c r="Q177">
+        <v>169.96485899999999</v>
+      </c>
+      <c r="R177">
+        <v>45.299499500000003</v>
+      </c>
+    </row>
+    <row r="178" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P178">
+        <v>3126.08032</v>
+      </c>
+      <c r="Q178">
+        <v>171.744339</v>
+      </c>
+      <c r="R178">
+        <v>46.674823799999999</v>
+      </c>
+    </row>
+    <row r="179" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P179">
+        <v>3388.4414099999999</v>
+      </c>
+      <c r="Q179">
+        <v>173.55612199999999</v>
+      </c>
+      <c r="R179">
+        <v>48.120521500000002</v>
+      </c>
+    </row>
+    <row r="180" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P180">
+        <v>3672.8234900000002</v>
+      </c>
+      <c r="Q180">
+        <v>175.39465300000001</v>
+      </c>
+      <c r="R180">
+        <v>49.641399399999997</v>
+      </c>
+    </row>
+    <row r="181" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P181">
+        <v>3981.0708</v>
+      </c>
+      <c r="Q181">
+        <v>177.25401299999999</v>
+      </c>
+      <c r="R181">
+        <v>51.244640400000002</v>
+      </c>
+    </row>
+    <row r="182" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P182">
+        <v>4315.1904299999997</v>
+      </c>
+      <c r="Q182">
+        <v>179.12887599999999</v>
+      </c>
+      <c r="R182">
+        <v>52.939765899999998</v>
+      </c>
+    </row>
+    <row r="183" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P183">
+        <v>4677.3520500000004</v>
+      </c>
+      <c r="Q183">
+        <v>181.014679</v>
+      </c>
+      <c r="R183">
+        <v>54.738716099999998</v>
+      </c>
+    </row>
+    <row r="184" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P184">
+        <v>5069.90625</v>
+      </c>
+      <c r="Q184">
+        <v>182.907974</v>
+      </c>
+      <c r="R184">
+        <v>56.655296300000003</v>
+      </c>
+    </row>
+    <row r="185" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P185">
+        <v>5495.4086900000002</v>
+      </c>
+      <c r="Q185">
+        <v>184.80697599999999</v>
+      </c>
+      <c r="R185">
+        <v>58.705223099999998</v>
+      </c>
+    </row>
+    <row r="186" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P186">
+        <v>5956.6225599999998</v>
+      </c>
+      <c r="Q186">
+        <v>186.711792</v>
+      </c>
+      <c r="R186">
+        <v>60.905597700000001</v>
+      </c>
+    </row>
+    <row r="187" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P187">
+        <v>6456.5415000000003</v>
+      </c>
+      <c r="Q187">
+        <v>188.62356600000001</v>
+      </c>
+      <c r="R187">
+        <v>63.274421699999998</v>
+      </c>
+    </row>
+    <row r="188" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P188">
+        <v>6998.4204099999997</v>
+      </c>
+      <c r="Q188">
+        <v>190.54598999999999</v>
+      </c>
+      <c r="R188">
+        <v>65.830627399999997</v>
+      </c>
+    </row>
+    <row r="189" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P189">
+        <v>7585.77783</v>
+      </c>
+      <c r="Q189">
+        <v>192.48376500000001</v>
+      </c>
+      <c r="R189">
+        <v>68.593612699999994</v>
+      </c>
+    </row>
+    <row r="190" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P190">
+        <v>8222.4257799999996</v>
+      </c>
+      <c r="Q190">
+        <v>194.443375</v>
+      </c>
+      <c r="R190">
+        <v>71.5829849</v>
+      </c>
+    </row>
+    <row r="191" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P191">
+        <v>8912.5107399999997</v>
+      </c>
+      <c r="Q191">
+        <v>196.43254099999999</v>
+      </c>
+      <c r="R191">
+        <v>74.818893399999993</v>
+      </c>
+    </row>
+    <row r="192" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P192">
+        <v>9660.5117200000004</v>
+      </c>
+      <c r="Q192">
+        <v>198.45996099999999</v>
+      </c>
+      <c r="R192">
+        <v>78.321441699999994</v>
+      </c>
+    </row>
+    <row r="193" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P193">
+        <v>10471.2852</v>
+      </c>
+      <c r="Q193">
+        <v>200.53526299999999</v>
+      </c>
+      <c r="R193">
+        <v>82.110961900000007</v>
+      </c>
+    </row>
+    <row r="194" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P194">
+        <v>11350.103499999999</v>
+      </c>
+      <c r="Q194">
+        <v>202.66928100000001</v>
+      </c>
+      <c r="R194">
+        <v>86.208335899999994</v>
+      </c>
+    </row>
+    <row r="195" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P195">
+        <v>12302.6924</v>
+      </c>
+      <c r="Q195">
+        <v>204.87361100000001</v>
+      </c>
+      <c r="R195">
+        <v>90.634658799999997</v>
+      </c>
+    </row>
+    <row r="196" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P196">
+        <v>13335.213900000001</v>
+      </c>
+      <c r="Q196">
+        <v>207.15978999999999</v>
+      </c>
+      <c r="R196">
+        <v>95.411140399999994</v>
+      </c>
+    </row>
+    <row r="197" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P197">
+        <v>14454.392599999999</v>
+      </c>
+      <c r="Q197">
+        <v>209.54098500000001</v>
+      </c>
+      <c r="R197">
+        <v>100.56001999999999</v>
+      </c>
+    </row>
+    <row r="198" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P198">
+        <v>15667.516600000001</v>
+      </c>
+      <c r="Q198">
+        <v>212.03041099999999</v>
+      </c>
+      <c r="R198">
+        <v>106.103737</v>
+      </c>
+    </row>
+    <row r="199" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P199">
+        <v>16982.4375</v>
+      </c>
+      <c r="Q199">
+        <v>214.64186100000001</v>
+      </c>
+      <c r="R199">
+        <v>112.06545300000001</v>
+      </c>
+    </row>
+    <row r="200" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P200">
+        <v>18407.714800000002</v>
+      </c>
+      <c r="Q200">
+        <v>217.38966400000001</v>
+      </c>
+      <c r="R200">
+        <v>118.469002</v>
+      </c>
+    </row>
+    <row r="201" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P201">
+        <v>19952.632799999999</v>
+      </c>
+      <c r="Q201">
+        <v>220.288803</v>
+      </c>
+      <c r="R201">
+        <v>125.33942399999999</v>
+      </c>
+    </row>
+    <row r="202" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P202">
+        <v>21627.1875</v>
+      </c>
+      <c r="Q202">
+        <v>223.354874</v>
+      </c>
+      <c r="R202">
+        <v>132.70193499999999</v>
+      </c>
+    </row>
+    <row r="203" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P203">
+        <v>23442.281200000001</v>
+      </c>
+      <c r="Q203">
+        <v>226.603058</v>
+      </c>
+      <c r="R203">
+        <v>140.583191</v>
+      </c>
+    </row>
+    <row r="204" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P204">
+        <v>25409.7402</v>
+      </c>
+      <c r="Q204">
+        <v>230.049271</v>
+      </c>
+      <c r="R204">
+        <v>149.01087999999999</v>
+      </c>
+    </row>
+    <row r="205" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P205">
+        <v>27542.291000000001</v>
+      </c>
+      <c r="Q205">
+        <v>233.70954900000001</v>
+      </c>
+      <c r="R205">
+        <v>158.01370199999999</v>
+      </c>
+    </row>
+    <row r="206" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P206">
+        <v>29853.820299999999</v>
+      </c>
+      <c r="Q206">
+        <v>237.59991500000001</v>
+      </c>
+      <c r="R206">
+        <v>167.62148999999999</v>
+      </c>
+    </row>
+    <row r="207" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P207">
+        <v>32359.382799999999</v>
+      </c>
+      <c r="Q207">
+        <v>241.736053</v>
+      </c>
+      <c r="R207">
+        <v>177.86610400000001</v>
+      </c>
+    </row>
+    <row r="208" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P208">
+        <v>35075.195299999999</v>
+      </c>
+      <c r="Q208">
+        <v>246.13270600000001</v>
+      </c>
+      <c r="R208">
+        <v>188.780869</v>
+      </c>
+    </row>
+    <row r="209" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P209">
+        <v>38018.933599999997</v>
+      </c>
+      <c r="Q209">
+        <v>250.804855</v>
+      </c>
+      <c r="R209">
+        <v>200.40141299999999</v>
+      </c>
+    </row>
+    <row r="210" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P210">
+        <v>41209.777300000002</v>
+      </c>
+      <c r="Q210">
+        <v>255.76632699999999</v>
+      </c>
+      <c r="R210">
+        <v>212.76625100000001</v>
+      </c>
+    </row>
+    <row r="211" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P211">
+        <v>44668.367200000001</v>
+      </c>
+      <c r="Q211">
+        <v>261.029877</v>
+      </c>
+      <c r="R211">
+        <v>225.91656499999999</v>
+      </c>
+    </row>
+    <row r="212" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P212">
+        <v>48417.230499999998</v>
+      </c>
+      <c r="Q212">
+        <v>266.60763500000002</v>
+      </c>
+      <c r="R212">
+        <v>239.897873</v>
+      </c>
+    </row>
+    <row r="213" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P213">
+        <v>52480.777300000002</v>
+      </c>
+      <c r="Q213">
+        <v>272.511169</v>
+      </c>
+      <c r="R213">
+        <v>254.760345</v>
+      </c>
+    </row>
+    <row r="214" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P214">
+        <v>56885.308599999997</v>
+      </c>
+      <c r="Q214">
+        <v>278.75109900000001</v>
+      </c>
+      <c r="R214">
+        <v>270.55862400000001</v>
+      </c>
+    </row>
+    <row r="215" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P215">
+        <v>61659.496099999997</v>
+      </c>
+      <c r="Q215">
+        <v>285.33804300000003</v>
+      </c>
+      <c r="R215">
+        <v>287.353363</v>
+      </c>
+    </row>
+    <row r="216" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P216">
+        <v>66834.359400000001</v>
+      </c>
+      <c r="Q216">
+        <v>292.28332499999999</v>
+      </c>
+      <c r="R216">
+        <v>305.21264600000001</v>
+      </c>
+    </row>
+    <row r="217" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P217">
+        <v>72443.617199999993</v>
+      </c>
+      <c r="Q217">
+        <v>299.59857199999999</v>
+      </c>
+      <c r="R217">
+        <v>324.20953400000002</v>
+      </c>
+    </row>
+    <row r="218" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P218">
+        <v>78523.5625</v>
+      </c>
+      <c r="Q218">
+        <v>307.29702800000001</v>
+      </c>
+      <c r="R218">
+        <v>344.42636099999999</v>
+      </c>
+    </row>
+    <row r="219" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P219">
+        <v>85113.773400000005</v>
+      </c>
+      <c r="Q219">
+        <v>315.39407299999999</v>
+      </c>
+      <c r="R219">
+        <v>365.95166</v>
+      </c>
+    </row>
+    <row r="220" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P220">
+        <v>92257.171900000001</v>
+      </c>
+      <c r="Q220">
+        <v>323.90798999999998</v>
+      </c>
+      <c r="R220">
+        <v>388.88253800000001</v>
+      </c>
+    </row>
+    <row r="221" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P221">
+        <v>100000</v>
+      </c>
+      <c r="Q221">
+        <v>332.85931399999998</v>
+      </c>
+      <c r="R221">
+        <v>413.32342499999999</v>
       </c>
     </row>
   </sheetData>

--- a/J_J/019-24A-Tscan_0_2mean-b_MR_b.xlsx
+++ b/J_J/019-24A-Tscan_0_2mean-b_MR_b.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sdh\dws\J_J\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{A65AF95A-4675-414B-AB9E-465EF3102459}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{AA8AC817-B08B-4DA1-B627-B81C9462E8EF}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3720" yWindow="0" windowWidth="13815" windowHeight="10800" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4650" yWindow="0" windowWidth="13815" windowHeight="10800" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="019-24A-Tscan_0_2mean-b_MR" sheetId="1" r:id="rId1"/>
@@ -51046,25 +51046,25 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23210352-5CB9-4F2A-9EFA-4C4427C4E272}">
-  <dimension ref="A1:R521"/>
+  <dimension ref="A1:T521"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="G143" sqref="G143"/>
+      <selection activeCell="T11" sqref="T11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>43375.720682870371</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -51072,7 +51072,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -51083,7 +51083,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -51100,7 +51100,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -51111,7 +51111,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -51125,7 +51125,7 @@
         <v>4.5687988930714996</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -51139,7 +51139,7 @@
         <v>9.9999999747524207E-7</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -51152,8 +51152,12 @@
       <c r="Q10" s="2">
         <v>4.2442024176055498E-2</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T10">
+        <f>340/510</f>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -51167,7 +51171,7 @@
         <v>0.193909073075276</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -51181,7 +51185,7 @@
         <v>1.12198249453344E-6</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -51195,7 +51199,7 @@
         <v>268.76151905690301</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -51209,7 +51213,7 @@
         <v>8.7220743659653806E-8</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -51223,7 +51227,7 @@
         <v>3.74004121205594E-8</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>17</v>
       </c>
